--- a/Excel/Mapping Study.xlsx
+++ b/Excel/Mapping Study.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bosch-my.sharepoint.com/personal/nnr3fe_bosch_com/Documents/PersonalDrive/HTWG/BA/Thesis/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bosch-my.sharepoint.com/personal/nnr3fe_bosch_com/Documents/PersonalDrive/HTWG/BA/LaTex/Thesis/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52277D5D-52CF-4EFB-8759-AD2ADE0E710B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="742" documentId="8_{52277D5D-52CF-4EFB-8759-AD2ADE0E710B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6914234D-42B4-4E7A-A9FC-B7A308BFE468}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{0DD4CFEA-C2F1-46F7-88F8-AB6F3727EE8E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{0DD4CFEA-C2F1-46F7-88F8-AB6F3727EE8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Zusammenfassung RQ1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="47">
   <si>
     <t>Anzahl Papers</t>
   </si>
@@ -197,6 +197,24 @@
   <si>
     <t>Spalte1</t>
   </si>
+  <si>
+    <t>Sicherheits- &amp; Bedrohungserkennung</t>
+  </si>
+  <si>
+    <t>Resilienz, Self-Healing und Predictive Maintenance</t>
+  </si>
+  <si>
+    <t>Intelligente Bereitstellung (Edge-AI &amp; Serverless)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AI Governance, Datenschutz und Compliance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrationskomplexität &amp; Abhängigkeiten </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datenqualität, Datenverfügbarkeit und Heterogenität </t>
+  </si>
 </sst>
 </file>
 
@@ -267,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -291,8 +309,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -464,49 +503,49 @@
                   <c:v>Ressource &amp; Workload Optimierung</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Security &amp; Threat Detetction</c:v>
+                  <c:v>Sicherheits- &amp; Bedrohungserkennung</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Security &amp; Threat Detetction</c:v>
+                  <c:v>Sicherheits- &amp; Bedrohungserkennung</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Security &amp; Threat Detetction</c:v>
+                  <c:v>Sicherheits- &amp; Bedrohungserkennung</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Security &amp; Threat Detetction</c:v>
+                  <c:v>Sicherheits- &amp; Bedrohungserkennung</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Security &amp; Threat Detetction</c:v>
+                  <c:v>Sicherheits- &amp; Bedrohungserkennung</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Self-healing &amp; Predicitve main</c:v>
+                  <c:v>Resilienz, Self-Healing und Predictive Maintenance</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Self-healing &amp; Predicitve main</c:v>
+                  <c:v>Resilienz, Self-Healing und Predictive Maintenance</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Self-healing &amp; Predicitve main</c:v>
+                  <c:v>Resilienz, Self-Healing und Predictive Maintenance</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Self-healing &amp; Predicitve main</c:v>
+                  <c:v>Resilienz, Self-Healing und Predictive Maintenance</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Self-healing &amp; Predicitve main</c:v>
+                  <c:v>Resilienz, Self-Healing und Predictive Maintenance</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Edge AI/ Serveless</c:v>
+                  <c:v>Intelligente Bereitstellung (Edge-AI &amp; Serverless)</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Edge AI/ Serveless</c:v>
+                  <c:v>Intelligente Bereitstellung (Edge-AI &amp; Serverless)</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Edge AI/ Serveless</c:v>
+                  <c:v>Intelligente Bereitstellung (Edge-AI &amp; Serverless)</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Edge AI/ Serveless</c:v>
+                  <c:v>Intelligente Bereitstellung (Edge-AI &amp; Serverless)</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Edge AI/ Serveless</c:v>
+                  <c:v>Intelligente Bereitstellung (Edge-AI &amp; Serverless)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -819,49 +858,49 @@
                   <c:v>Ressource &amp; Workload Optimierung</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Security &amp; Threat Detetction</c:v>
+                  <c:v>Sicherheits- &amp; Bedrohungserkennung</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Security &amp; Threat Detetction</c:v>
+                  <c:v>Sicherheits- &amp; Bedrohungserkennung</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Security &amp; Threat Detetction</c:v>
+                  <c:v>Sicherheits- &amp; Bedrohungserkennung</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Security &amp; Threat Detetction</c:v>
+                  <c:v>Sicherheits- &amp; Bedrohungserkennung</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Security &amp; Threat Detetction</c:v>
+                  <c:v>Sicherheits- &amp; Bedrohungserkennung</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Self-healing &amp; Predicitve main</c:v>
+                  <c:v>Resilienz, Self-Healing und Predictive Maintenance</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Self-healing &amp; Predicitve main</c:v>
+                  <c:v>Resilienz, Self-Healing und Predictive Maintenance</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Self-healing &amp; Predicitve main</c:v>
+                  <c:v>Resilienz, Self-Healing und Predictive Maintenance</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Self-healing &amp; Predicitve main</c:v>
+                  <c:v>Resilienz, Self-Healing und Predictive Maintenance</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Self-healing &amp; Predicitve main</c:v>
+                  <c:v>Resilienz, Self-Healing und Predictive Maintenance</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Edge AI/ Serveless</c:v>
+                  <c:v>Intelligente Bereitstellung (Edge-AI &amp; Serverless)</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Edge AI/ Serveless</c:v>
+                  <c:v>Intelligente Bereitstellung (Edge-AI &amp; Serverless)</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Edge AI/ Serveless</c:v>
+                  <c:v>Intelligente Bereitstellung (Edge-AI &amp; Serverless)</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Edge AI/ Serveless</c:v>
+                  <c:v>Intelligente Bereitstellung (Edge-AI &amp; Serverless)</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Edge AI/ Serveless</c:v>
+                  <c:v>Intelligente Bereitstellung (Edge-AI &amp; Serverless)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3446,7 +3485,7 @@
       </c>
     </row>
     <row r="2" spans="1:46" s="4" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3502,7 +3541,7 @@
       <c r="AT2"/>
     </row>
     <row r="3" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" s="9"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3556,7 +3595,7 @@
       <c r="AT3"/>
     </row>
     <row r="4" spans="1:46" s="4" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="9"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3610,7 +3649,7 @@
       <c r="AT4"/>
     </row>
     <row r="5" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" s="9"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -3664,7 +3703,7 @@
       <c r="AT5"/>
     </row>
     <row r="6" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A6" s="9"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -3718,7 +3757,7 @@
       <c r="AT6"/>
     </row>
     <row r="7" spans="1:46" s="4" customFormat="1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3774,7 +3813,7 @@
       <c r="AT7"/>
     </row>
     <row r="8" spans="1:46" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="9"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
@@ -3828,7 +3867,7 @@
       <c r="AT8"/>
     </row>
     <row r="9" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
@@ -3882,7 +3921,7 @@
       <c r="AT9"/>
     </row>
     <row r="10" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A10" s="9"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
@@ -3936,7 +3975,7 @@
       <c r="AT10"/>
     </row>
     <row r="11" spans="1:46" s="4" customFormat="1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A11" s="9"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
@@ -4002,8 +4041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FA32D9-5FDF-4B13-A8A2-A3E26E74C01B}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4022,7 +4061,7 @@
       <c r="C1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -4037,19 +4076,19 @@
         <v>30</v>
       </c>
       <c r="B2" s="6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C2" s="6">
-        <v>13</v>
-      </c>
-      <c r="D2" s="6">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="D2" s="10">
+        <v>9</v>
       </c>
       <c r="E2" s="6">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F2" s="6">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -4057,39 +4096,39 @@
         <v>34</v>
       </c>
       <c r="B3" s="6">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="6">
-        <v>17</v>
-      </c>
-      <c r="D3" s="6">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="D3" s="10">
+        <v>14</v>
       </c>
       <c r="E3" s="6">
         <v>15</v>
       </c>
       <c r="F3" s="6">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="6">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6">
+      <c r="B4" s="10">
+        <v>14</v>
+      </c>
+      <c r="C4" s="10">
+        <v>13</v>
+      </c>
+      <c r="D4" s="10">
+        <v>14</v>
+      </c>
+      <c r="E4" s="10">
+        <v>11</v>
+      </c>
+      <c r="F4" s="10">
         <v>10</v>
-      </c>
-      <c r="D4" s="6">
-        <v>12</v>
-      </c>
-      <c r="E4" s="6">
-        <v>8</v>
-      </c>
-      <c r="F4" s="6">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -4097,19 +4136,19 @@
         <v>32</v>
       </c>
       <c r="B5" s="6">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6">
+        <v>16</v>
+      </c>
+      <c r="D5" s="10">
         <v>14</v>
       </c>
-      <c r="C5" s="6">
+      <c r="E5" s="6">
+        <v>16</v>
+      </c>
+      <c r="F5" s="6">
         <v>12</v>
-      </c>
-      <c r="D5" s="6">
-        <v>12</v>
-      </c>
-      <c r="E5" s="6">
-        <v>11</v>
-      </c>
-      <c r="F5" s="6">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -4117,19 +4156,19 @@
         <v>33</v>
       </c>
       <c r="B6" s="6">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6">
+        <v>13</v>
+      </c>
+      <c r="D6" s="10">
+        <v>13</v>
+      </c>
+      <c r="E6" s="6">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6">
         <v>11</v>
-      </c>
-      <c r="C6" s="6">
-        <v>10</v>
-      </c>
-      <c r="D6" s="6">
-        <v>11</v>
-      </c>
-      <c r="E6" s="6">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4141,11 +4180,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3262B687-1B36-4642-B0C3-0FB5595C7692}">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="32.26953125" customWidth="1"/>
+    <col min="1" max="1" width="45.81640625" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="40.90625" customWidth="1"/>
+    <col min="4" max="4" width="17.90625" style="15" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" style="15" customWidth="1"/>
     <col min="6" max="10" width="21.81640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4153,16 +4198,16 @@
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="12" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4170,16 +4215,16 @@
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="13">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="5">
+      <c r="C2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="13">
         <v>1</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="13">
         <v>15</v>
       </c>
     </row>
@@ -4187,67 +4232,67 @@
       <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="13">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="C3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="13">
         <v>2</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="13">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="13">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="C4" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="13">
         <v>3</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="13">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="13">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="C5" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="13">
         <v>4</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="13">
         <v>1</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="5">
+      <c r="C6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="13">
         <v>5</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="13">
         <v>15</v>
       </c>
     </row>
@@ -4255,16 +4300,16 @@
       <c r="A7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="13">
         <v>2</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="C7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="13">
         <v>1</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="13">
         <v>19</v>
       </c>
     </row>
@@ -4272,322 +4317,322 @@
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="13">
         <v>2</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="C8" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="13">
         <v>2</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="13">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="13">
         <v>2</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="C9" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="13">
         <v>3</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="13">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="13">
         <v>2</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="5">
+      <c r="C10" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="13">
         <v>4</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="13">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="13">
         <v>2</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="5">
+      <c r="C11" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="13">
         <v>5</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="13">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="5">
+        <v>41</v>
+      </c>
+      <c r="B12" s="13">
         <v>3</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="C12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="13">
         <v>1</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="13">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="5">
+        <v>41</v>
+      </c>
+      <c r="B13" s="13">
         <v>3</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="5">
+      <c r="C13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="13">
         <v>2</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="5">
+        <v>41</v>
+      </c>
+      <c r="B14" s="13">
         <v>3</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="5">
+      <c r="C14" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="13">
         <v>3</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="5">
+        <v>41</v>
+      </c>
+      <c r="B15" s="13">
         <v>3</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="5">
+      <c r="C15" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="13">
         <v>4</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="13">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="5">
+        <v>41</v>
+      </c>
+      <c r="B16" s="13">
         <v>3</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="5">
+      <c r="C16" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="13">
         <v>5</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="13">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="5">
+        <v>42</v>
+      </c>
+      <c r="B17" s="13">
         <v>4</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="5">
+      <c r="C17" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="13">
         <v>1</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="13">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="5">
+        <v>42</v>
+      </c>
+      <c r="B18" s="13">
         <v>4</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="C18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="13">
         <v>2</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="5">
+        <v>42</v>
+      </c>
+      <c r="B19" s="13">
         <v>4</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="5">
+      <c r="C19" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="13">
         <v>3</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="13">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="5">
+        <v>42</v>
+      </c>
+      <c r="B20" s="13">
         <v>4</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="5">
+      <c r="C20" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="13">
         <v>4</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="13">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="5">
+        <v>42</v>
+      </c>
+      <c r="B21" s="13">
         <v>4</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="5">
+      <c r="C21" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="13">
         <v>5</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="13">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="5">
+        <v>43</v>
+      </c>
+      <c r="B22" s="13">
         <v>5</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="C22" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="13">
         <v>1</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="13">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="5">
+        <v>43</v>
+      </c>
+      <c r="B23" s="13">
         <v>5</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="5">
+      <c r="C23" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="13">
         <v>2</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="5">
+        <v>43</v>
+      </c>
+      <c r="B24" s="13">
         <v>5</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="5">
+      <c r="C24" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="13">
         <v>3</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="13">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B25" s="5">
+        <v>43</v>
+      </c>
+      <c r="B25" s="13">
         <v>5</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="5">
+      <c r="C25" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="13">
         <v>4</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="5">
+        <v>43</v>
+      </c>
+      <c r="B26" s="13">
         <v>5</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="5">
+      <c r="C26" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="13">
         <v>5</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="13">
         <v>10</v>
       </c>
     </row>
@@ -4601,7 +4646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C01E7C6-FF3A-488E-A5BE-37F61A4E87C7}">
   <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>

--- a/Excel/Mapping Study.xlsx
+++ b/Excel/Mapping Study.xlsx
@@ -1,25 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bosch-my.sharepoint.com/personal/nnr3fe_bosch_com/Documents/PersonalDrive/HTWG/BA/LaTex/Thesis/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilsarnold/Documents/WIN-Studium/7. Semester/BA/Thesis/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="742" documentId="8_{52277D5D-52CF-4EFB-8759-AD2ADE0E710B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6914234D-42B4-4E7A-A9FC-B7A308BFE468}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6D62AD-4014-C54F-8508-75C30E73A565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{0DD4CFEA-C2F1-46F7-88F8-AB6F3727EE8E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{0DD4CFEA-C2F1-46F7-88F8-AB6F3727EE8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Zusammenfassung RQ1" sheetId="1" r:id="rId1"/>
     <sheet name="Ausgangstabelle RQ1" sheetId="3" r:id="rId2"/>
-    <sheet name="Mappingtabelle RQ1" sheetId="4" r:id="rId3"/>
-    <sheet name="Mappingtabelle RQ1 (2)" sheetId="5" r:id="rId4"/>
-    <sheet name="Mapping RQ2" sheetId="2" r:id="rId5"/>
+    <sheet name="Tabelle1" sheetId="6" r:id="rId3"/>
+    <sheet name="Mappingtabelle RQ1" sheetId="4" r:id="rId4"/>
+    <sheet name="Mappingtabelle RQ1 (2)" sheetId="5" r:id="rId5"/>
+    <sheet name="Mapping RQ2" sheetId="2" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Mappingtabelle RQ1'!$A$1:$B$26</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Mappingtabelle RQ1'!$A$2:$B$26</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Mappingtabelle RQ1'!$D$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Mappingtabelle RQ1'!$D$2:$D$26</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Mappingtabelle RQ1'!$E$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Mappingtabelle RQ1'!$E$2:$E$26</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Mappingtabelle RQ1'!$A$2:$B$26</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'Mappingtabelle RQ1'!$C$1</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'Mappingtabelle RQ1'!$C$2:$C$26</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'Mappingtabelle RQ1'!$D$1</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">'Mappingtabelle RQ1'!$D$2:$D$26</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">'Mappingtabelle RQ1'!$E$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Mappingtabelle RQ1'!$C$1</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'Mappingtabelle RQ1'!$E$2:$E$26</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'Mappingtabelle RQ1'!$A$2:$B$26</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'Mappingtabelle RQ1'!$C$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'Mappingtabelle RQ1'!$C$2:$C$26</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'Mappingtabelle RQ1'!$D$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'Mappingtabelle RQ1'!$D$2:$D$26</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'Mappingtabelle RQ1'!$E$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'Mappingtabelle RQ1'!$E$2:$E$26</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'Mappingtabelle RQ1'!$A$2:$B$26</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'Mappingtabelle RQ1'!$C$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Mappingtabelle RQ1'!$C$2:$C$26</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'Mappingtabelle RQ1'!$C$2:$C$26</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">'Mappingtabelle RQ1'!$D$1</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">'Mappingtabelle RQ1'!$D$2:$D$26</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">'Mappingtabelle RQ1'!$E$1</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">'Mappingtabelle RQ1'!$E$2:$E$26</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">'Mappingtabelle RQ1'!$A$2:$B$26</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">'Mappingtabelle RQ1'!$C$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">'Mappingtabelle RQ1'!$C$2:$C$26</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">'Mappingtabelle RQ1'!$D$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">'Mappingtabelle RQ1'!$D$2:$D$26</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Mappingtabelle RQ1'!$D$1</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">'Mappingtabelle RQ1'!$E$1</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">'Mappingtabelle RQ1'!$E$2:$E$26</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">'Mappingtabelle RQ1'!$A$2:$B$26</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">'Mappingtabelle RQ1'!$C$1</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">'Mappingtabelle RQ1'!$C$2:$C$26</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">'Mappingtabelle RQ1'!$D$1</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">'Mappingtabelle RQ1'!$D$2:$D$26</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">'Mappingtabelle RQ1'!$E$1</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">'Mappingtabelle RQ1'!$E$2:$E$26</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">'Mappingtabelle RQ1'!$A$2:$B$26</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Mappingtabelle RQ1'!$D$2:$D$26</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">'Mappingtabelle RQ1'!$C$1</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">'Mappingtabelle RQ1'!$C$2:$C$26</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">'Mappingtabelle RQ1'!$D$1</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">'Mappingtabelle RQ1'!$D$2:$D$26</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">'Mappingtabelle RQ1'!$E$1</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">'Mappingtabelle RQ1'!$E$2:$E$26</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Mappingtabelle RQ1'!$E$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Mappingtabelle RQ1'!$E$2:$E$26</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Mappingtabelle RQ1'!$A$1:$C$26</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'Mappingtabelle RQ1'!$A$2:$C$26</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId7"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="54">
   <si>
     <t>Anzahl Papers</t>
   </si>
@@ -215,6 +277,27 @@
   <si>
     <t xml:space="preserve">Datenqualität, Datenverfügbarkeit und Heterogenität </t>
   </si>
+  <si>
+    <t>X (UC)</t>
+  </si>
+  <si>
+    <t>Y (Heraus)</t>
+  </si>
+  <si>
+    <t>Zeilenbeschriftungen</t>
+  </si>
+  <si>
+    <t>Gesamtergebnis</t>
+  </si>
+  <si>
+    <t>Anzahl von Y (Heraus)</t>
+  </si>
+  <si>
+    <t>Anzahl von X (UC)</t>
+  </si>
+  <si>
+    <t>Anzahl von Häufigkeit</t>
+  </si>
 </sst>
 </file>
 
@@ -285,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -309,15 +392,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -333,23 +407,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -405,6 +490,1068 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Mapping Study.xlsx]Tabelle1!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Anzahl von Häufigkeit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Tabelle1!$A$2:$A$32</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="25"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>AI Governance, Datenschutz und Compliance </c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Datenqualität, Datenverfügbarkeit und Heterogenität </c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Integrationskomplexität &amp; Abhängigkeiten </c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Ressourcenverbrauch &amp; Kosten</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Skalierbarkeit, Latenz &amp; Monitoring</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>AI Governance, Datenschutz und Compliance </c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Datenqualität, Datenverfügbarkeit und Heterogenität </c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Integrationskomplexität &amp; Abhängigkeiten </c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Ressourcenverbrauch &amp; Kosten</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Skalierbarkeit, Latenz &amp; Monitoring</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>AI Governance, Datenschutz und Compliance </c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Datenqualität, Datenverfügbarkeit und Heterogenität </c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Integrationskomplexität &amp; Abhängigkeiten </c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Ressourcenverbrauch &amp; Kosten</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Skalierbarkeit, Latenz &amp; Monitoring</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>AI Governance, Datenschutz und Compliance </c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Datenqualität, Datenverfügbarkeit und Heterogenität </c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Integrationskomplexität &amp; Abhängigkeiten </c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Ressourcenverbrauch &amp; Kosten</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Skalierbarkeit, Latenz &amp; Monitoring</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>AI Governance, Datenschutz und Compliance </c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Datenqualität, Datenverfügbarkeit und Heterogenität </c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Integrationskomplexität &amp; Abhängigkeiten </c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Ressourcenverbrauch &amp; Kosten</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Skalierbarkeit, Latenz &amp; Monitoring</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>CI/CD &amp; Pipeline Optimierung</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Intelligente Bereitstellung (Edge-AI &amp; Serverless)</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Resilienz, Self-Healing und Predictive Maintenance</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Ressource &amp; Workload Optimierung</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Sicherheits- &amp; Bedrohungserkennung</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$B$2:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-94EE-6846-80A5-24CC2886C436}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Anzahl von Y (Heraus)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Tabelle1!$A$2:$A$32</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="25"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>AI Governance, Datenschutz und Compliance </c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Datenqualität, Datenverfügbarkeit und Heterogenität </c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Integrationskomplexität &amp; Abhängigkeiten </c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Ressourcenverbrauch &amp; Kosten</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Skalierbarkeit, Latenz &amp; Monitoring</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>AI Governance, Datenschutz und Compliance </c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Datenqualität, Datenverfügbarkeit und Heterogenität </c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Integrationskomplexität &amp; Abhängigkeiten </c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Ressourcenverbrauch &amp; Kosten</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Skalierbarkeit, Latenz &amp; Monitoring</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>AI Governance, Datenschutz und Compliance </c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Datenqualität, Datenverfügbarkeit und Heterogenität </c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Integrationskomplexität &amp; Abhängigkeiten </c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Ressourcenverbrauch &amp; Kosten</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Skalierbarkeit, Latenz &amp; Monitoring</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>AI Governance, Datenschutz und Compliance </c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Datenqualität, Datenverfügbarkeit und Heterogenität </c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Integrationskomplexität &amp; Abhängigkeiten </c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Ressourcenverbrauch &amp; Kosten</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Skalierbarkeit, Latenz &amp; Monitoring</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>AI Governance, Datenschutz und Compliance </c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Datenqualität, Datenverfügbarkeit und Heterogenität </c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Integrationskomplexität &amp; Abhängigkeiten </c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Ressourcenverbrauch &amp; Kosten</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Skalierbarkeit, Latenz &amp; Monitoring</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>CI/CD &amp; Pipeline Optimierung</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Intelligente Bereitstellung (Edge-AI &amp; Serverless)</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Resilienz, Self-Healing und Predictive Maintenance</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Ressource &amp; Workload Optimierung</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Sicherheits- &amp; Bedrohungserkennung</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$2:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-94EE-6846-80A5-24CC2886C436}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Anzahl von X (UC)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Tabelle1!$A$2:$A$32</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="25"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>AI Governance, Datenschutz und Compliance </c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Datenqualität, Datenverfügbarkeit und Heterogenität </c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Integrationskomplexität &amp; Abhängigkeiten </c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Ressourcenverbrauch &amp; Kosten</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Skalierbarkeit, Latenz &amp; Monitoring</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>AI Governance, Datenschutz und Compliance </c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Datenqualität, Datenverfügbarkeit und Heterogenität </c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Integrationskomplexität &amp; Abhängigkeiten </c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Ressourcenverbrauch &amp; Kosten</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Skalierbarkeit, Latenz &amp; Monitoring</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>AI Governance, Datenschutz und Compliance </c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Datenqualität, Datenverfügbarkeit und Heterogenität </c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Integrationskomplexität &amp; Abhängigkeiten </c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Ressourcenverbrauch &amp; Kosten</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Skalierbarkeit, Latenz &amp; Monitoring</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>AI Governance, Datenschutz und Compliance </c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Datenqualität, Datenverfügbarkeit und Heterogenität </c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Integrationskomplexität &amp; Abhängigkeiten </c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Ressourcenverbrauch &amp; Kosten</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Skalierbarkeit, Latenz &amp; Monitoring</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>AI Governance, Datenschutz und Compliance </c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Datenqualität, Datenverfügbarkeit und Heterogenität </c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Integrationskomplexität &amp; Abhängigkeiten </c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Ressourcenverbrauch &amp; Kosten</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Skalierbarkeit, Latenz &amp; Monitoring</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>CI/CD &amp; Pipeline Optimierung</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Intelligente Bereitstellung (Edge-AI &amp; Serverless)</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Resilienz, Self-Healing und Predictive Maintenance</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Ressource &amp; Workload Optimierung</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Sicherheits- &amp; Bedrohungserkennung</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$D$2:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-94EE-6846-80A5-24CC2886C436}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="603525951"/>
+        <c:axId val="580397567"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="603525951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="580397567"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="580397567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="603525951"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:overlay val="0"/>
@@ -432,7 +1579,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -446,11 +1593,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Mappingtabelle RQ1'!$B$1</c:f>
+              <c:f>'Mappingtabelle RQ1'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Y (UC)</c:v>
+                  <c:v>Y (Heraus)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -468,442 +1615,88 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:xVal>
-            <c:strRef>
-              <c:f>'Mappingtabelle RQ1'!$A$2:$A$26</c:f>
-              <c:strCache>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>CI/CD &amp; Pipeline Optimierung</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CI/CD &amp; Pipeline Optimierung</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>CI/CD &amp; Pipeline Optimierung</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>CI/CD &amp; Pipeline Optimierung</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>CI/CD &amp; Pipeline Optimierung</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Ressource &amp; Workload Optimierung</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ressource &amp; Workload Optimierung</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Ressource &amp; Workload Optimierung</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Ressource &amp; Workload Optimierung</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Ressource &amp; Workload Optimierung</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Sicherheits- &amp; Bedrohungserkennung</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Sicherheits- &amp; Bedrohungserkennung</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Sicherheits- &amp; Bedrohungserkennung</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Sicherheits- &amp; Bedrohungserkennung</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Sicherheits- &amp; Bedrohungserkennung</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Resilienz, Self-Healing und Predictive Maintenance</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Resilienz, Self-Healing und Predictive Maintenance</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Resilienz, Self-Healing und Predictive Maintenance</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Resilienz, Self-Healing und Predictive Maintenance</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Resilienz, Self-Healing und Predictive Maintenance</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Intelligente Bereitstellung (Edge-AI &amp; Serverless)</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Intelligente Bereitstellung (Edge-AI &amp; Serverless)</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Intelligente Bereitstellung (Edge-AI &amp; Serverless)</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Intelligente Bereitstellung (Edge-AI &amp; Serverless)</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Intelligente Bereitstellung (Edge-AI &amp; Serverless)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Mappingtabelle RQ1'!$B$2:$B$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:bubbleSize>
             <c:numRef>
               <c:f>'Mappingtabelle RQ1'!$C$2:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:bubbleSize>
-          <c:bubble3D val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D5CA-45B9-83FC-9BC08060D9DB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Mappingtabelle RQ1'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>X (Herausf)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:alpha val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="24"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-D5CA-45B9-83FC-9BC08060D9DB}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:strRef>
-              <c:f>'Mappingtabelle RQ1'!$A$2:$A$26</c:f>
-              <c:strCache>
-                <c:ptCount val="25"/>
-                <c:pt idx="0">
-                  <c:v>CI/CD &amp; Pipeline Optimierung</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CI/CD &amp; Pipeline Optimierung</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>CI/CD &amp; Pipeline Optimierung</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>CI/CD &amp; Pipeline Optimierung</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>CI/CD &amp; Pipeline Optimierung</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Ressource &amp; Workload Optimierung</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ressource &amp; Workload Optimierung</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Ressource &amp; Workload Optimierung</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Ressource &amp; Workload Optimierung</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Ressource &amp; Workload Optimierung</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Sicherheits- &amp; Bedrohungserkennung</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Sicherheits- &amp; Bedrohungserkennung</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Sicherheits- &amp; Bedrohungserkennung</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>Sicherheits- &amp; Bedrohungserkennung</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Sicherheits- &amp; Bedrohungserkennung</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Resilienz, Self-Healing und Predictive Maintenance</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>Resilienz, Self-Healing und Predictive Maintenance</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>Resilienz, Self-Healing und Predictive Maintenance</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>Resilienz, Self-Healing und Predictive Maintenance</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>Resilienz, Self-Healing und Predictive Maintenance</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Intelligente Bereitstellung (Edge-AI &amp; Serverless)</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Intelligente Bereitstellung (Edge-AI &amp; Serverless)</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Intelligente Bereitstellung (Edge-AI &amp; Serverless)</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Intelligente Bereitstellung (Edge-AI &amp; Serverless)</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Intelligente Bereitstellung (Edge-AI &amp; Serverless)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -996,79 +1789,79 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="25"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="12">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="20">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="24">
                   <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1076,7 +1869,7 @@
           <c:bubble3D val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D5CA-45B9-83FC-9BC08060D9DB}"/>
+              <c16:uniqueId val="{00000000-EC0C-B143-AF41-679F4E1F33A2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1090,11 +1883,11 @@
         </c:dLbls>
         <c:bubbleScale val="100"/>
         <c:showNegBubbles val="0"/>
-        <c:axId val="1544237520"/>
-        <c:axId val="1544238960"/>
+        <c:axId val="655574783"/>
+        <c:axId val="589360959"/>
       </c:bubbleChart>
       <c:valAx>
-        <c:axId val="1544237520"/>
+        <c:axId val="655574783"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1114,6 +1907,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1147,15 +1941,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1544238960"/>
+        <c:crossAx val="589360959"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1544238960"/>
+        <c:axId val="589360959"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1209,10 +2003,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1544237520"/>
+        <c:crossAx val="655574783"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1224,46 +2018,8 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1288,7 +2044,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1299,7 +2055,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -1898,8 +2654,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="269">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1926,8 +2722,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2007,6 +2803,509 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="269">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr">
@@ -2433,7 +3732,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="269">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2972,23 +4271,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46AC24C4-F584-B19F-B73F-0B552D455981}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E8410B8-2C87-6B38-8C9A-942A5A9DEA7B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3010,6 +4309,47 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2307167</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>159456</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>134056</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>136878</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE078BC2-D3C5-D92A-3A29-084D988BDDA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3126,18 +4466,427 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Nils Arnold" refreshedDate="45994.647272337963" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="25" xr:uid="{20DCE5A8-1909-F848-8F34-14D7DFC513E9}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E26" sheet="Mappingtabelle RQ1"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Anwendungsfelder" numFmtId="0">
+      <sharedItems count="5">
+        <s v="CI/CD &amp; Pipeline Optimierung"/>
+        <s v="Ressource &amp; Workload Optimierung"/>
+        <s v="Sicherheits- &amp; Bedrohungserkennung"/>
+        <s v="Resilienz, Self-Healing und Predictive Maintenance"/>
+        <s v="Intelligente Bereitstellung (Edge-AI &amp; Serverless)"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Herausforderungen" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Ressourcenverbrauch &amp; Kosten"/>
+        <s v="Skalierbarkeit, Latenz &amp; Monitoring"/>
+        <s v="AI Governance, Datenschutz und Compliance "/>
+        <s v="Integrationskomplexität &amp; Abhängigkeiten "/>
+        <s v="Datenqualität, Datenverfügbarkeit und Heterogenität "/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="X (UC)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+    </cacheField>
+    <cacheField name="Y (Heraus)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+    </cacheField>
+    <cacheField name="Häufigkeit" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="8" maxValue="17"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="25">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="11"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{23A81CE4-1443-AF4C-91CA-0AB36C74CC9E}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:D32" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="31">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Anzahl von Häufigkeit" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Anzahl von Y (Heraus)" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Anzahl von X (UC)" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E706E2EF-D64C-4855-9281-9F3C5286A26D}" name="Tabelle1" displayName="Tabelle1" ref="A1:F26" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F26" xr:uid="{E706E2EF-D64C-4855-9281-9F3C5286A26D}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{8CFD7DF8-757C-4E01-ABCD-C6C971A9D3DE}" name="X (Herausf)" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{ED346FD2-DD74-49B6-B8CA-A80EFD95632E}" name="Y (UC)" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{C4AE0138-F170-4A39-90C9-88174DC12CB7}" name="Häufigkeit" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{4F9BD63C-3BD3-4F75-855F-FB944B02BCFB}" name="Spalte1" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{8CFD7DF8-757C-4E01-ABCD-C6C971A9D3DE}" name="X (Herausf)" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{ED346FD2-DD74-49B6-B8CA-A80EFD95632E}" name="Y (UC)" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{C4AE0138-F170-4A39-90C9-88174DC12CB7}" name="Häufigkeit" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{4F9BD63C-3BD3-4F75-855F-FB944B02BCFB}" name="Spalte1" dataDxfId="1">
       <calculatedColumnFormula xml:space="preserve"> Tabelle1[[#This Row],[Häufigkeit]]*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D0A6725A-B7D1-45D5-AA1B-63CD205FF1DE}" name="Kategorie" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{810C6E41-BD58-414D-AAB2-8C3E00AE47FA}" name="Label" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{D0A6725A-B7D1-45D5-AA1B-63CD205FF1DE}" name="Kategorie" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{810C6E41-BD58-414D-AAB2-8C3E00AE47FA}" name="Label" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3466,16 +5215,16 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" customWidth="1"/>
-    <col min="2" max="2" width="30.7265625" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
     <col min="3" max="3" width="39" customWidth="1"/>
-    <col min="4" max="4" width="74.6328125" customWidth="1"/>
-    <col min="5" max="5" width="41.1796875" customWidth="1"/>
+    <col min="4" max="4" width="74.6640625" customWidth="1"/>
+    <col min="5" max="5" width="41.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:46" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -3484,8 +5233,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:46" s="4" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:46" s="4" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3540,8 +5289,8 @@
       <c r="AS2"/>
       <c r="AT2"/>
     </row>
-    <row r="3" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" s="11"/>
+    <row r="3" spans="1:46" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A3" s="14"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -3594,8 +5343,8 @@
       <c r="AS3"/>
       <c r="AT3"/>
     </row>
-    <row r="4" spans="1:46" s="4" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="11"/>
+    <row r="4" spans="1:46" s="4" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A4" s="14"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3648,8 +5397,8 @@
       <c r="AS4"/>
       <c r="AT4"/>
     </row>
-    <row r="5" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" s="11"/>
+    <row r="5" spans="1:46" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A5" s="14"/>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -3702,8 +5451,8 @@
       <c r="AS5"/>
       <c r="AT5"/>
     </row>
-    <row r="6" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A6" s="11"/>
+    <row r="6" spans="1:46" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A6" s="14"/>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -3756,8 +5505,8 @@
       <c r="AS6"/>
       <c r="AT6"/>
     </row>
-    <row r="7" spans="1:46" s="4" customFormat="1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:46" s="4" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3812,8 +5561,8 @@
       <c r="AS7"/>
       <c r="AT7"/>
     </row>
-    <row r="8" spans="1:46" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="11"/>
+    <row r="8" spans="1:46" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" s="14"/>
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
@@ -3866,8 +5615,8 @@
       <c r="AS8"/>
       <c r="AT8"/>
     </row>
-    <row r="9" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="11"/>
+    <row r="9" spans="1:46" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A9" s="14"/>
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
@@ -3920,8 +5669,8 @@
       <c r="AS9"/>
       <c r="AT9"/>
     </row>
-    <row r="10" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A10" s="11"/>
+    <row r="10" spans="1:46" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A10" s="14"/>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
@@ -3974,8 +5723,8 @@
       <c r="AS10"/>
       <c r="AT10"/>
     </row>
-    <row r="11" spans="1:46" s="4" customFormat="1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A11" s="11"/>
+    <row r="11" spans="1:46" s="4" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A11" s="14"/>
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
@@ -4041,17 +5790,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FA32D9-5FDF-4B13-A8A2-A3E26E74C01B}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.26953125" customWidth="1"/>
-    <col min="2" max="6" width="21.81640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+    <col min="2" max="6" width="21.83203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
@@ -4061,7 +5810,7 @@
       <c r="C1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -4071,7 +5820,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -4081,7 +5830,7 @@
       <c r="C2" s="6">
         <v>9</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="6">
         <v>9</v>
       </c>
       <c r="E2" s="6">
@@ -4091,7 +5840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>34</v>
       </c>
@@ -4101,7 +5850,7 @@
       <c r="C3" s="6">
         <v>16</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="6">
         <v>14</v>
       </c>
       <c r="E3" s="6">
@@ -4111,27 +5860,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="6">
         <v>14</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="6">
         <v>13</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="6">
         <v>14</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="6">
         <v>11</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
@@ -4141,7 +5890,7 @@
       <c r="C5" s="6">
         <v>16</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="6">
         <v>14</v>
       </c>
       <c r="E5" s="6">
@@ -4151,7 +5900,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
@@ -4161,7 +5910,7 @@
       <c r="C6" s="6">
         <v>13</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="6">
         <v>13</v>
       </c>
       <c r="E6" s="6">
@@ -4177,463 +5926,938 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3262B687-1B36-4642-B0C3-0FB5595C7692}">
-  <dimension ref="A1:J26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1BF3AB-AFA4-3E4B-BE80-BA8B138ED29B}">
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.81640625" customWidth="1"/>
-    <col min="2" max="2" width="17.08984375" style="14" customWidth="1"/>
-    <col min="3" max="3" width="40.90625" customWidth="1"/>
-    <col min="4" max="4" width="17.90625" style="15" customWidth="1"/>
-    <col min="5" max="5" width="19.54296875" style="15" customWidth="1"/>
-    <col min="6" max="10" width="21.81640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="43.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="18">
+        <v>5</v>
+      </c>
+      <c r="C2" s="18">
+        <v>5</v>
+      </c>
+      <c r="D2" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="18">
+        <v>1</v>
+      </c>
+      <c r="C3" s="18">
+        <v>1</v>
+      </c>
+      <c r="D3" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="18">
+        <v>1</v>
+      </c>
+      <c r="C4" s="18">
+        <v>1</v>
+      </c>
+      <c r="D4" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="18">
+        <v>1</v>
+      </c>
+      <c r="C5" s="18">
+        <v>1</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="18">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="18">
+        <v>1</v>
+      </c>
+      <c r="C7" s="18">
+        <v>1</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="18">
+        <v>5</v>
+      </c>
+      <c r="C8" s="18">
+        <v>5</v>
+      </c>
+      <c r="D8" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="18">
+        <v>1</v>
+      </c>
+      <c r="C9" s="18">
+        <v>1</v>
+      </c>
+      <c r="D9" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="18">
+        <v>1</v>
+      </c>
+      <c r="C10" s="18">
+        <v>1</v>
+      </c>
+      <c r="D10" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="18">
+        <v>1</v>
+      </c>
+      <c r="C11" s="18">
+        <v>1</v>
+      </c>
+      <c r="D11" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="18">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18">
+        <v>1</v>
+      </c>
+      <c r="D12" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="18">
+        <v>1</v>
+      </c>
+      <c r="C13" s="18">
+        <v>1</v>
+      </c>
+      <c r="D13" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="18">
+        <v>5</v>
+      </c>
+      <c r="C14" s="18">
+        <v>5</v>
+      </c>
+      <c r="D14" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="18">
+        <v>1</v>
+      </c>
+      <c r="C15" s="18">
+        <v>1</v>
+      </c>
+      <c r="D15" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="18">
+        <v>1</v>
+      </c>
+      <c r="C16" s="18">
+        <v>1</v>
+      </c>
+      <c r="D16" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="18">
+        <v>1</v>
+      </c>
+      <c r="C17" s="18">
+        <v>1</v>
+      </c>
+      <c r="D17" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="18">
+        <v>1</v>
+      </c>
+      <c r="D18" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="18">
+        <v>1</v>
+      </c>
+      <c r="C19" s="18">
+        <v>1</v>
+      </c>
+      <c r="D19" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="18">
+        <v>5</v>
+      </c>
+      <c r="C20" s="18">
+        <v>5</v>
+      </c>
+      <c r="D20" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="18">
+        <v>1</v>
+      </c>
+      <c r="C21" s="18">
+        <v>1</v>
+      </c>
+      <c r="D21" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="18">
+        <v>1</v>
+      </c>
+      <c r="C22" s="18">
+        <v>1</v>
+      </c>
+      <c r="D22" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="18">
+        <v>1</v>
+      </c>
+      <c r="C23" s="18">
+        <v>1</v>
+      </c>
+      <c r="D23" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="18">
+        <v>1</v>
+      </c>
+      <c r="C24" s="18">
+        <v>1</v>
+      </c>
+      <c r="D24" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="18">
+        <v>1</v>
+      </c>
+      <c r="C25" s="18">
+        <v>1</v>
+      </c>
+      <c r="D25" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="18">
+        <v>5</v>
+      </c>
+      <c r="C26" s="18">
+        <v>5</v>
+      </c>
+      <c r="D26" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="18">
+        <v>1</v>
+      </c>
+      <c r="C27" s="18">
+        <v>1</v>
+      </c>
+      <c r="D27" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="18">
+        <v>1</v>
+      </c>
+      <c r="C28" s="18">
+        <v>1</v>
+      </c>
+      <c r="D28" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="18">
+        <v>1</v>
+      </c>
+      <c r="C29" s="18">
+        <v>1</v>
+      </c>
+      <c r="D29" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="18">
+        <v>1</v>
+      </c>
+      <c r="C30" s="18">
+        <v>1</v>
+      </c>
+      <c r="D30" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="18">
+        <v>1</v>
+      </c>
+      <c r="C31" s="18">
+        <v>1</v>
+      </c>
+      <c r="D31" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="18">
+        <v>25</v>
+      </c>
+      <c r="C32" s="18">
+        <v>25</v>
+      </c>
+      <c r="D32" s="18">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3262B687-1B36-4642-B0C3-0FB5595C7692}">
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="45.83203125" customWidth="1"/>
+    <col min="2" max="2" width="42.5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="12" customWidth="1"/>
+    <col min="6" max="10" width="21.83203125" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="C1" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="13">
-        <v>1</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="13">
-        <v>1</v>
-      </c>
-      <c r="E2" s="13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="13">
-        <v>1</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="13">
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10">
         <v>2</v>
       </c>
-      <c r="E3" s="13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E3" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="13">
-        <v>1</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="13">
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
         <v>3</v>
       </c>
-      <c r="E4" s="13">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E4" s="10">
+        <v>9</v>
+      </c>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="13">
-        <v>1</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="13">
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10">
         <v>4</v>
       </c>
-      <c r="E5" s="13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E5" s="10">
+        <v>9</v>
+      </c>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="13">
-        <v>1</v>
-      </c>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="13">
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10">
         <v>5</v>
       </c>
-      <c r="E6" s="13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E6" s="10">
+        <v>8</v>
+      </c>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="10">
         <v>2</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="13">
-        <v>1</v>
-      </c>
-      <c r="E7" s="13">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10">
+        <v>17</v>
+      </c>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="10">
         <v>2</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="13">
+      <c r="D8" s="10">
         <v>2</v>
       </c>
-      <c r="E8" s="13">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E8" s="10">
+        <v>16</v>
+      </c>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="10">
         <v>2</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="13">
+      <c r="D9" s="10">
         <v>3</v>
       </c>
-      <c r="E9" s="13">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E9" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="10">
         <v>2</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="13">
+      <c r="D10" s="10">
         <v>4</v>
       </c>
-      <c r="E10" s="13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E10" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="10">
         <v>2</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="13">
+      <c r="D11" s="10">
         <v>5</v>
       </c>
-      <c r="E11" s="13">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E11" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="10">
         <v>3</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="13">
-        <v>1</v>
-      </c>
-      <c r="E12" s="13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="10">
         <v>3</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="13">
+      <c r="D13" s="10">
         <v>2</v>
       </c>
-      <c r="E13" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E13" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="10">
         <v>3</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="13">
+      <c r="D14" s="10">
         <v>3</v>
       </c>
-      <c r="E14" s="13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E14" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="10">
         <v>3</v>
       </c>
-      <c r="C15" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="13">
+      <c r="D15" s="10">
         <v>4</v>
       </c>
-      <c r="E15" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E15" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="10">
         <v>3</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="13">
+      <c r="D16" s="10">
         <v>5</v>
       </c>
-      <c r="E16" s="13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E16" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="10">
         <v>4</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="13">
-        <v>1</v>
-      </c>
-      <c r="E17" s="13">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D17" s="10">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="10">
         <v>4</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="13">
+      <c r="D18" s="10">
         <v>2</v>
       </c>
-      <c r="E18" s="13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E18" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="10">
         <v>4</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="13">
+      <c r="D19" s="10">
         <v>3</v>
       </c>
-      <c r="E19" s="13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E19" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="10">
         <v>4</v>
       </c>
-      <c r="C20" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="13">
+      <c r="D20" s="10">
         <v>4</v>
       </c>
-      <c r="E20" s="13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E20" s="10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="10">
         <v>4</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="13">
+      <c r="D21" s="10">
         <v>5</v>
       </c>
-      <c r="E21" s="13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E21" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="10">
         <v>5</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="13">
-        <v>1</v>
-      </c>
-      <c r="E22" s="13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D22" s="10">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="10">
         <v>5</v>
       </c>
-      <c r="C23" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="13">
+      <c r="D23" s="10">
         <v>2</v>
       </c>
-      <c r="E23" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E23" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="10">
         <v>5</v>
       </c>
-      <c r="C24" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="13">
+      <c r="D24" s="10">
         <v>3</v>
       </c>
-      <c r="E24" s="13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E24" s="10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="10">
         <v>5</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="13">
+      <c r="D25" s="10">
         <v>4</v>
       </c>
-      <c r="E25" s="13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="E25" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="10">
         <v>5</v>
       </c>
-      <c r="C26" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="13">
+      <c r="D26" s="10">
         <v>5</v>
       </c>
-      <c r="E26" s="13">
-        <v>10</v>
+      <c r="E26" s="10">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -4642,21 +6866,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C01E7C6-FF3A-488E-A5BE-37F61A4E87C7}">
   <dimension ref="A1:M58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="32.26953125" customWidth="1"/>
-    <col min="9" max="13" width="21.81640625" style="6" customWidth="1"/>
+    <col min="1" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="8" width="32.33203125" customWidth="1"/>
+    <col min="9" max="13" width="21.83203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>37</v>
       </c>
@@ -4676,14 +6901,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
         <v>15</v>
       </c>
       <c r="D2" s="5">
@@ -4697,14 +6922,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5">
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
         <v>13</v>
       </c>
       <c r="D3" s="5">
@@ -4718,14 +6943,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
         <v>14</v>
       </c>
       <c r="D4" s="5">
@@ -4739,14 +6964,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
         <v>12</v>
       </c>
       <c r="D5" s="5">
@@ -4760,14 +6985,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
         <v>15</v>
       </c>
       <c r="D6" s="5">
@@ -4781,14 +7006,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <v>1</v>
+      </c>
+      <c r="B7" s="10">
         <v>2</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="10">
         <v>19</v>
       </c>
       <c r="D7" s="5">
@@ -4802,14 +7027,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
         <v>2</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="10">
         <v>2</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="10">
         <v>17</v>
       </c>
       <c r="D8" s="5">
@@ -4823,14 +7048,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
         <v>3</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="10">
         <v>2</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="10">
         <v>17</v>
       </c>
       <c r="D9" s="5">
@@ -4844,14 +7069,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
         <v>4</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="10">
         <v>2</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="10">
         <v>15</v>
       </c>
       <c r="D10" s="5">
@@ -4865,14 +7090,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
         <v>5</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="10">
         <v>2</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="10">
         <v>18</v>
       </c>
       <c r="D11" s="5">
@@ -4886,14 +7111,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
-        <v>1</v>
-      </c>
-      <c r="B12" s="5">
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
+        <v>1</v>
+      </c>
+      <c r="B12" s="10">
         <v>3</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="10">
         <v>12</v>
       </c>
       <c r="D12" s="5">
@@ -4907,14 +7132,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
         <v>2</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="10">
         <v>3</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="10">
         <v>10</v>
       </c>
       <c r="D13" s="5">
@@ -4928,14 +7153,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
         <v>3</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="10">
         <v>3</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="10">
         <v>12</v>
       </c>
       <c r="D14" s="5">
@@ -4949,14 +7174,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
         <v>4</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="10">
         <v>3</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="10">
         <v>8</v>
       </c>
       <c r="D15" s="5">
@@ -4970,14 +7195,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
         <v>5</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="10">
         <v>3</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="10">
         <v>11</v>
       </c>
       <c r="D16" s="5">
@@ -4991,14 +7216,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
-        <v>1</v>
-      </c>
-      <c r="B17" s="5">
+    <row r="17" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
+        <v>1</v>
+      </c>
+      <c r="B17" s="10">
         <v>4</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="10">
         <v>14</v>
       </c>
       <c r="D17" s="5">
@@ -5012,14 +7237,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
+    <row r="18" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
         <v>2</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="10">
         <v>4</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="10">
         <v>12</v>
       </c>
       <c r="D18" s="5">
@@ -5033,14 +7258,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="5">
+    <row r="19" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
         <v>3</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="10">
         <v>4</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="10">
         <v>12</v>
       </c>
       <c r="D19" s="5">
@@ -5054,14 +7279,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
         <v>4</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="10">
         <v>4</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="10">
         <v>11</v>
       </c>
       <c r="D20" s="5">
@@ -5075,14 +7300,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
+    <row r="21" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
         <v>5</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="10">
         <v>4</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="10">
         <v>13</v>
       </c>
       <c r="D21" s="5">
@@ -5096,14 +7321,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="5">
-        <v>1</v>
-      </c>
-      <c r="B22" s="5">
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
+        <v>1</v>
+      </c>
+      <c r="B22" s="10">
         <v>5</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="10">
         <v>11</v>
       </c>
       <c r="D22" s="5">
@@ -5117,14 +7342,14 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="5">
+    <row r="23" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
         <v>2</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="10">
         <v>5</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="10">
         <v>10</v>
       </c>
       <c r="D23" s="5">
@@ -5138,14 +7363,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="5">
+    <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="10">
         <v>3</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="10">
         <v>5</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="10">
         <v>11</v>
       </c>
       <c r="D24" s="5">
@@ -5159,14 +7384,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="5">
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
         <v>4</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="10">
         <v>5</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="10">
         <v>10</v>
       </c>
       <c r="D25" s="5">
@@ -5180,14 +7405,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="5">
+    <row r="26" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
         <v>5</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="10">
         <v>5</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="10">
         <v>10</v>
       </c>
       <c r="D26" s="5">
@@ -5201,132 +7426,132 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -5340,18 +7565,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DF9B60-2E89-4293-8875-39A769A4224F}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.7265625" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="37.26953125" customWidth="1"/>
-    <col min="4" max="4" width="41.1796875" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" customWidth="1"/>
+    <col min="4" max="4" width="41.1640625" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Excel/Mapping Study.xlsx
+++ b/Excel/Mapping Study.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bosch-my.sharepoint.com/personal/nnr3fe_bosch_com/Documents/PersonalDrive/HTWG/BA/LaTex/Thesis/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="168" documentId="13_ncr:1_{4E6D62AD-4014-C54F-8508-75C30E73A565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40D7A6E0-BFA3-4E52-B194-4F9A032EA6FD}"/>
+  <xr:revisionPtr revIDLastSave="480" documentId="13_ncr:1_{4E6D62AD-4014-C54F-8508-75C30E73A565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BB6758B-882F-496A-ACB2-8AAC405539E0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="5" xr2:uid="{0DD4CFEA-C2F1-46F7-88F8-AB6F3727EE8E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{0DD4CFEA-C2F1-46F7-88F8-AB6F3727EE8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Zusammenfassung RQ1" sheetId="1" r:id="rId1"/>
     <sheet name="Ausgangstabelle RQ1" sheetId="3" r:id="rId2"/>
     <sheet name="Mappingtabelle eins" sheetId="4" r:id="rId3"/>
-    <sheet name="Mapping drei" sheetId="7" r:id="rId4"/>
-    <sheet name="Mapping zwei" sheetId="2" r:id="rId5"/>
-    <sheet name="Mapping vier " sheetId="8" r:id="rId6"/>
+    <sheet name="Mapping zwei" sheetId="2" r:id="rId4"/>
+    <sheet name="Mapping drei " sheetId="8" r:id="rId5"/>
+    <sheet name="Mapping vier" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="69">
   <si>
     <t>Anzahl Papers</t>
   </si>
@@ -279,12 +279,15 @@
   <si>
     <t>Y (Algorithmen)</t>
   </si>
+  <si>
+    <t xml:space="preserve">Erwähnte Lernparadigmen nicht aufgenommen, nur implizit und explizit </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -304,6 +307,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -354,7 +364,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -396,9 +406,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -420,6 +427,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -438,72 +460,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1423147</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>827460</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>7810</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Grafik 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BF7C469-E313-8CEB-3F6F-5850DDFAC8E1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1423147" y="5838265"/>
-          <a:ext cx="10123487" cy="5879692"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -911,7 +867,7 @@
       </c>
     </row>
     <row r="2" spans="1:46" s="4" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="24" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -967,7 +923,7 @@
       <c r="AT2"/>
     </row>
     <row r="3" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" s="15"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1021,7 +977,7 @@
       <c r="AT3"/>
     </row>
     <row r="4" spans="1:46" s="4" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1075,7 +1031,7 @@
       <c r="AT4"/>
     </row>
     <row r="5" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1129,7 +1085,7 @@
       <c r="AT5"/>
     </row>
     <row r="6" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1183,7 +1139,7 @@
       <c r="AT6"/>
     </row>
     <row r="7" spans="1:46" s="4" customFormat="1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1239,7 +1195,7 @@
       <c r="AT7"/>
     </row>
     <row r="8" spans="1:46" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1293,7 +1249,7 @@
       <c r="AT8"/>
     </row>
     <row r="9" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="15"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1347,7 +1303,7 @@
       <c r="AT9"/>
     </row>
     <row r="10" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1401,7 +1357,7 @@
       <c r="AT10"/>
     </row>
     <row r="11" spans="1:46" s="4" customFormat="1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1606,8 +1562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3262B687-1B36-4642-B0C3-0FB5595C7692}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1829,6 +1785,7 @@
       <c r="E12" s="10">
         <v>14</v>
       </c>
+      <c r="G12"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
@@ -2071,23 +2028,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF098A9C-7030-4F5A-B840-B199B20245A5}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DF9B60-2E89-4293-8875-39A769A4224F}">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -2103,33 +2047,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="14">
@@ -2141,21 +2085,21 @@
       <c r="D2" s="14">
         <v>6</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>49</v>
       </c>
       <c r="B3" s="14">
@@ -2167,21 +2111,21 @@
       <c r="D3" s="14">
         <v>0</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>50</v>
       </c>
       <c r="B4" s="14">
@@ -2193,21 +2137,21 @@
       <c r="D4" s="14">
         <v>0</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>51</v>
       </c>
       <c r="B5" s="14">
@@ -2219,21 +2163,21 @@
       <c r="D5" s="14">
         <v>0</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>64</v>
       </c>
       <c r="B7" t="s">
@@ -2250,16 +2194,16 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="25" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="21">
         <v>1</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="21">
         <v>1</v>
       </c>
       <c r="E8">
@@ -2267,16 +2211,16 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="21">
         <v>1</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="21">
         <v>2</v>
       </c>
       <c r="E9">
@@ -2284,16 +2228,16 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="25" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="21">
         <v>1</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="21">
         <v>3</v>
       </c>
       <c r="E10">
@@ -2301,16 +2245,16 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="21">
         <v>1</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="21">
         <v>4</v>
       </c>
       <c r="E11">
@@ -2318,16 +2262,16 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="25" x14ac:dyDescent="0.35">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="21">
         <v>2</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="21">
         <v>1</v>
       </c>
       <c r="E12">
@@ -2335,16 +2279,16 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="21">
         <v>2</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="21">
         <v>2</v>
       </c>
       <c r="E13">
@@ -2352,16 +2296,16 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="25" x14ac:dyDescent="0.35">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="21">
         <v>2</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="21">
         <v>3</v>
       </c>
       <c r="E14">
@@ -2369,16 +2313,16 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="21">
         <v>2</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <v>4</v>
       </c>
       <c r="E15">
@@ -2386,16 +2330,16 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="25" x14ac:dyDescent="0.35">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="21">
         <v>3</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="21">
         <v>1</v>
       </c>
       <c r="E16">
@@ -2403,16 +2347,16 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="21">
         <v>3</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="21">
         <v>2</v>
       </c>
       <c r="E17">
@@ -2420,16 +2364,16 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="25" x14ac:dyDescent="0.35">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="21">
         <v>3</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="21">
         <v>3</v>
       </c>
       <c r="E18">
@@ -2437,16 +2381,16 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="21">
         <v>3</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="21">
         <v>4</v>
       </c>
       <c r="E19">
@@ -2459,12 +2403,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B9B836-856D-4E27-9EE4-62FFF85FE8A1}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2473,52 +2417,228 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B2" s="23">
+        <v>8</v>
+      </c>
+      <c r="C2" s="23">
+        <v>7</v>
+      </c>
+      <c r="D2" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="23">
+        <v>13</v>
+      </c>
+      <c r="C3" s="23">
+        <v>9</v>
+      </c>
+      <c r="D3" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="28">
+        <v>13</v>
+      </c>
+      <c r="C4" s="28">
+        <v>10</v>
+      </c>
+      <c r="D4" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="23">
+        <v>14</v>
+      </c>
+      <c r="C5" s="23">
+        <v>9</v>
+      </c>
+      <c r="D5" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="23">
+        <v>12</v>
+      </c>
+      <c r="C6" s="23">
+        <v>8</v>
+      </c>
+      <c r="D6" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:C8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF098A9C-7030-4F5A-B840-B199B20245A5}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="4" width="30.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="4"/>
+      <c r="B1" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="23">
+        <v>16</v>
+      </c>
+      <c r="C2" s="23">
+        <v>12</v>
+      </c>
+      <c r="D2" s="23">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+      <c r="A3" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="23">
+        <v>15</v>
+      </c>
+      <c r="C3" s="23">
+        <v>10</v>
+      </c>
+      <c r="D3" s="23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="28">
+        <v>15</v>
+      </c>
+      <c r="C4" s="28">
+        <v>10</v>
+      </c>
+      <c r="D4" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="23">
+        <v>13</v>
+      </c>
+      <c r="C5" s="23">
+        <v>9</v>
+      </c>
+      <c r="D5" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="23">
+        <v>12</v>
+      </c>
+      <c r="C6" s="23">
+        <v>9</v>
+      </c>
+      <c r="D6" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B8:D8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel/Mapping Study.xlsx
+++ b/Excel/Mapping Study.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="480" documentId="13_ncr:1_{4E6D62AD-4014-C54F-8508-75C30E73A565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BB6758B-882F-496A-ACB2-8AAC405539E0}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{0DD4CFEA-C2F1-46F7-88F8-AB6F3727EE8E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{0DD4CFEA-C2F1-46F7-88F8-AB6F3727EE8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Zusammenfassung RQ1" sheetId="1" r:id="rId1"/>
@@ -427,20 +427,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -867,7 +867,7 @@
       </c>
     </row>
     <row r="2" spans="1:46" s="4" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="27" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -923,7 +923,7 @@
       <c r="AT2"/>
     </row>
     <row r="3" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" s="24"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -977,7 +977,7 @@
       <c r="AT3"/>
     </row>
     <row r="4" spans="1:46" s="4" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="24"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1031,7 +1031,7 @@
       <c r="AT4"/>
     </row>
     <row r="5" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" s="24"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1085,7 +1085,7 @@
       <c r="AT5"/>
     </row>
     <row r="6" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A6" s="24"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1139,7 +1139,7 @@
       <c r="AT6"/>
     </row>
     <row r="7" spans="1:46" s="4" customFormat="1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="27" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1195,7 +1195,7 @@
       <c r="AT7"/>
     </row>
     <row r="8" spans="1:46" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="24"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1249,7 +1249,7 @@
       <c r="AT8"/>
     </row>
     <row r="9" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="24"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1303,7 +1303,7 @@
       <c r="AT9"/>
     </row>
     <row r="10" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A10" s="24"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1357,7 +1357,7 @@
       <c r="AT10"/>
     </row>
     <row r="11" spans="1:46" s="4" customFormat="1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A11" s="24"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1423,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77FA32D9-5FDF-4B13-A8A2-A3E26E74C01B}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1562,8 +1562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3262B687-1B36-4642-B0C3-0FB5595C7692}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2407,7 +2407,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B9B836-856D-4E27-9EE4-62FFF85FE8A1}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
@@ -2460,10 +2460,10 @@
       <c r="A4" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="26">
         <v>13</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="26">
         <v>10</v>
       </c>
       <c r="D4" s="23">
@@ -2499,31 +2499,31 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="27"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2559,7 +2559,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="24" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="23">
@@ -2573,7 +2573,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="23">
@@ -2587,13 +2587,13 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="26">
         <v>15</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="26">
         <v>10</v>
       </c>
       <c r="D4" s="23">
@@ -2601,7 +2601,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="24" t="s">
         <v>40</v>
       </c>
       <c r="B5" s="23">
@@ -2615,7 +2615,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>41</v>
       </c>
       <c r="B6" s="23">
@@ -2629,11 +2629,11 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Excel/Mapping Study.xlsx
+++ b/Excel/Mapping Study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bosch-my.sharepoint.com/personal/nnr3fe_bosch_com/Documents/PersonalDrive/HTWG/BA/LaTex/Thesis/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilsarnold/Documents/WIN-Studium/7. Semester/BA/Thesis/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="480" documentId="13_ncr:1_{4E6D62AD-4014-C54F-8508-75C30E73A565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BB6758B-882F-496A-ACB2-8AAC405539E0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA54909-9B0A-EF4B-BA4D-7F07283153F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{0DD4CFEA-C2F1-46F7-88F8-AB6F3727EE8E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{0DD4CFEA-C2F1-46F7-88F8-AB6F3727EE8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Zusammenfassung RQ1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="Mappingtabelle eins" sheetId="4" r:id="rId3"/>
     <sheet name="Mapping zwei" sheetId="2" r:id="rId4"/>
     <sheet name="Mapping drei " sheetId="8" r:id="rId5"/>
-    <sheet name="Mapping vier" sheetId="7" r:id="rId6"/>
+    <sheet name="Mapping Final" sheetId="9" r:id="rId6"/>
+    <sheet name="Mapping vier" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="93">
   <si>
     <t>Anzahl Papers</t>
   </si>
@@ -282,12 +283,84 @@
   <si>
     <t xml:space="preserve">Erwähnte Lernparadigmen nicht aufgenommen, nur implizit und explizit </t>
   </si>
+  <si>
+    <t>Clustering</t>
+  </si>
+  <si>
+    <t>DL/NN</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>P12</t>
+  </si>
+  <si>
+    <t>P13</t>
+  </si>
+  <si>
+    <t>P14</t>
+  </si>
+  <si>
+    <t>P15</t>
+  </si>
+  <si>
+    <t>P16</t>
+  </si>
+  <si>
+    <t>P17</t>
+  </si>
+  <si>
+    <t>P18</t>
+  </si>
+  <si>
+    <t>P19</t>
+  </si>
+  <si>
+    <t>P20</t>
+  </si>
+  <si>
+    <t>P21</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +388,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -324,7 +410,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -360,11 +446,213 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -403,9 +691,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -414,11 +699,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -430,17 +714,89 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -848,16 +1204,16 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" customWidth="1"/>
-    <col min="2" max="2" width="30.6328125" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
     <col min="3" max="3" width="39" customWidth="1"/>
-    <col min="4" max="4" width="74.6328125" customWidth="1"/>
-    <col min="5" max="5" width="41.1796875" customWidth="1"/>
+    <col min="4" max="4" width="74.6640625" customWidth="1"/>
+    <col min="5" max="5" width="41.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:46" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -866,8 +1222,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:46" s="4" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:46" s="4" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -922,8 +1278,8 @@
       <c r="AS2"/>
       <c r="AT2"/>
     </row>
-    <row r="3" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" s="27"/>
+    <row r="3" spans="1:46" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A3" s="23"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -976,8 +1332,8 @@
       <c r="AS3"/>
       <c r="AT3"/>
     </row>
-    <row r="4" spans="1:46" s="4" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="27"/>
+    <row r="4" spans="1:46" s="4" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A4" s="23"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1030,8 +1386,8 @@
       <c r="AS4"/>
       <c r="AT4"/>
     </row>
-    <row r="5" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" s="27"/>
+    <row r="5" spans="1:46" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A5" s="23"/>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1084,8 +1440,8 @@
       <c r="AS5"/>
       <c r="AT5"/>
     </row>
-    <row r="6" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A6" s="27"/>
+    <row r="6" spans="1:46" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A6" s="23"/>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1138,8 +1494,8 @@
       <c r="AS6"/>
       <c r="AT6"/>
     </row>
-    <row r="7" spans="1:46" s="4" customFormat="1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A7" s="27" t="s">
+    <row r="7" spans="1:46" s="4" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A7" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1194,8 +1550,8 @@
       <c r="AS7"/>
       <c r="AT7"/>
     </row>
-    <row r="8" spans="1:46" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="27"/>
+    <row r="8" spans="1:46" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" s="23"/>
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1248,8 +1604,8 @@
       <c r="AS8"/>
       <c r="AT8"/>
     </row>
-    <row r="9" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="27"/>
+    <row r="9" spans="1:46" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A9" s="23"/>
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1302,8 +1658,8 @@
       <c r="AS9"/>
       <c r="AT9"/>
     </row>
-    <row r="10" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A10" s="27"/>
+    <row r="10" spans="1:46" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A10" s="23"/>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1356,8 +1712,8 @@
       <c r="AS10"/>
       <c r="AT10"/>
     </row>
-    <row r="11" spans="1:46" s="4" customFormat="1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A11" s="27"/>
+    <row r="11" spans="1:46" s="4" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A11" s="23"/>
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1424,16 +1780,16 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.36328125" customWidth="1"/>
-    <col min="2" max="6" width="21.81640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+    <col min="2" max="6" width="21.83203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
@@ -1453,7 +1809,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -1473,7 +1829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>34</v>
       </c>
@@ -1493,7 +1849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
@@ -1513,7 +1869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
@@ -1533,7 +1889,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
@@ -1562,21 +1918,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3262B687-1B36-4642-B0C3-0FB5595C7692}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.81640625" customWidth="1"/>
-    <col min="2" max="2" width="42.453125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="27.81640625" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="19.453125" style="12" customWidth="1"/>
-    <col min="6" max="10" width="21.81640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="45.83203125" customWidth="1"/>
+    <col min="2" max="2" width="42.5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="12" customWidth="1"/>
+    <col min="6" max="10" width="21.83203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -1593,7 +1949,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -1610,7 +1966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
@@ -1628,7 +1984,7 @@
       </c>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
@@ -1646,7 +2002,7 @@
       </c>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>30</v>
       </c>
@@ -1664,7 +2020,7 @@
       </c>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
@@ -1682,7 +2038,7 @@
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>34</v>
       </c>
@@ -1700,7 +2056,7 @@
       </c>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
@@ -1718,7 +2074,7 @@
       </c>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>34</v>
       </c>
@@ -1735,7 +2091,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>34</v>
       </c>
@@ -1752,7 +2108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -1769,7 +2125,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -1787,7 +2143,7 @@
       </c>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -1804,7 +2160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
@@ -1821,7 +2177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
@@ -1838,7 +2194,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>36</v>
       </c>
@@ -1855,7 +2211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>37</v>
       </c>
@@ -1872,7 +2228,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
@@ -1889,7 +2245,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
@@ -1906,7 +2262,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>37</v>
       </c>
@@ -1923,7 +2279,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>37</v>
       </c>
@@ -1940,7 +2296,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>38</v>
       </c>
@@ -1957,7 +2313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>38</v>
       </c>
@@ -1974,7 +2330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>38</v>
       </c>
@@ -1991,7 +2347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
@@ -2008,7 +2364,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>38</v>
       </c>
@@ -2036,148 +2392,148 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="B12" sqref="B12:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="4" width="23.90625" customWidth="1"/>
-    <col min="7" max="10" width="26.08984375" customWidth="1"/>
+    <col min="2" max="4" width="23.83203125" customWidth="1"/>
+    <col min="7" max="10" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="2">
         <v>14</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="2">
         <v>5</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="2">
         <v>6</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="15" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="2">
         <v>7</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="2">
         <v>0</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="2">
         <v>8</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="2">
         <v>0</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="2">
         <v>0</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="2">
         <v>5</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="15" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>64</v>
       </c>
       <c r="B7" t="s">
@@ -2193,204 +2549,204 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="25" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="19">
         <v>1</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="19">
         <v>1</v>
       </c>
       <c r="E8">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="19">
         <v>1</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="19">
         <v>2</v>
       </c>
       <c r="E9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="25" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="19">
         <v>1</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="19">
         <v>3</v>
       </c>
       <c r="E10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="19">
         <v>1</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="19">
         <v>4</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="25" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
+    <row r="12" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="19">
         <v>2</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="19">
         <v>1</v>
       </c>
       <c r="E12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="19" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="19">
         <v>2</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="19">
         <v>2</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="25" x14ac:dyDescent="0.35">
-      <c r="A14" s="19" t="s">
+    <row r="14" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="19">
         <v>2</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="19">
         <v>3</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="19" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="19">
         <v>2</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="19">
         <v>4</v>
       </c>
       <c r="E15">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="25" x14ac:dyDescent="0.35">
-      <c r="A16" s="19" t="s">
+    <row r="16" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="19">
         <v>3</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="19">
         <v>1</v>
       </c>
       <c r="E16">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="19" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="19">
         <v>3</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="19">
         <v>2</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="25" x14ac:dyDescent="0.35">
-      <c r="A18" s="19" t="s">
+    <row r="18" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="19">
         <v>3</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="19">
         <v>3</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="19" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="19">
         <v>3</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="19">
         <v>4</v>
       </c>
       <c r="E19">
@@ -2411,119 +2767,119 @@
       <selection activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="29.90625" customWidth="1"/>
+    <col min="1" max="5" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="21">
         <v>8</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="21">
         <v>7</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="21">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="21">
         <v>13</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="21">
         <v>9</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="21">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="21">
         <v>13</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="21">
         <v>10</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="21">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="21">
         <v>14</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="21">
         <v>9</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="21">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="21">
         <v>12</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="21">
         <v>8</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="28" t="s">
+    <row r="8" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2534,6 +2890,352 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75DD1D88-089A-304B-8F89-0474B1D6BA35}">
+  <dimension ref="A1:G30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="6" width="19.6640625" style="47" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="52"/>
+    </row>
+    <row r="2" spans="1:7" s="47" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="47" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="27">
+        <v>3</v>
+      </c>
+      <c r="D3" s="27">
+        <v>6</v>
+      </c>
+      <c r="E3" s="27">
+        <v>6</v>
+      </c>
+      <c r="F3" s="27">
+        <v>5</v>
+      </c>
+      <c r="G3" s="34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="47" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="32"/>
+      <c r="B4" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="41">
+        <v>1</v>
+      </c>
+      <c r="D4" s="41">
+        <v>2</v>
+      </c>
+      <c r="E4" s="41">
+        <v>3</v>
+      </c>
+      <c r="F4" s="41">
+        <v>2</v>
+      </c>
+      <c r="G4" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="47" customFormat="1" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
+      <c r="B5" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="28">
+        <v>1</v>
+      </c>
+      <c r="D5" s="28">
+        <v>4</v>
+      </c>
+      <c r="E5" s="28">
+        <v>3</v>
+      </c>
+      <c r="F5" s="28">
+        <v>3</v>
+      </c>
+      <c r="G5" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="47" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="27">
+        <v>2</v>
+      </c>
+      <c r="D6" s="27">
+        <v>3</v>
+      </c>
+      <c r="E6" s="27">
+        <v>3</v>
+      </c>
+      <c r="F6" s="27">
+        <v>3</v>
+      </c>
+      <c r="G6" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="47" customFormat="1" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
+      <c r="B7" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="28">
+        <v>1</v>
+      </c>
+      <c r="D7" s="28">
+        <v>2</v>
+      </c>
+      <c r="E7" s="28">
+        <v>2</v>
+      </c>
+      <c r="F7" s="28">
+        <v>2</v>
+      </c>
+      <c r="G7" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="47" customFormat="1" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="45">
+        <v>2</v>
+      </c>
+      <c r="D8" s="45">
+        <v>2</v>
+      </c>
+      <c r="E8" s="45">
+        <v>2</v>
+      </c>
+      <c r="F8" s="45">
+        <v>1</v>
+      </c>
+      <c r="G8" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="48"/>
+    </row>
+    <row r="10" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="48"/>
+      <c r="B10" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="48"/>
+      <c r="B11" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="12"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="12"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="12"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="12"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="12"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="12"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="12"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="12"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="12"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="12"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF098A9C-7030-4F5A-B840-B199B20245A5}">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -2541,99 +3243,99 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="30.90625" customWidth="1"/>
+    <col min="1" max="4" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="21">
         <v>16</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="21">
         <v>12</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="21">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="21">
         <v>15</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="21">
         <v>10</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="21">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="21">
         <v>15</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="21">
         <v>10</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="21">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="24" t="s">
+    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="21">
         <v>13</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="21">
         <v>9</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="21">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="21">
         <v>12</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="21">
         <v>9</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="21">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="28" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Excel/Mapping Study.xlsx
+++ b/Excel/Mapping Study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilsarnold/Documents/WIN-Studium/7. Semester/BA/Thesis/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bosch-my.sharepoint.com/personal/nnr3fe_bosch_com/Documents/PersonalDrive/HTWG/BA/LaTex/Thesis/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA54909-9B0A-EF4B-BA4D-7F07283153F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="6_{1C4991A2-5980-45E5-84EC-2227ABB33033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95418BC8-1A71-4E50-AED8-963159553336}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{0DD4CFEA-C2F1-46F7-88F8-AB6F3727EE8E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="5" xr2:uid="{0DD4CFEA-C2F1-46F7-88F8-AB6F3727EE8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Zusammenfassung RQ1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="93">
   <si>
     <t>Anzahl Papers</t>
   </si>
@@ -714,12 +714,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -734,15 +728,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -789,6 +774,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -797,6 +788,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1204,16 +1204,16 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.6328125" customWidth="1"/>
+    <col min="2" max="2" width="30.6328125" customWidth="1"/>
     <col min="3" max="3" width="39" customWidth="1"/>
-    <col min="4" max="4" width="74.6640625" customWidth="1"/>
-    <col min="5" max="5" width="41.1640625" customWidth="1"/>
+    <col min="4" max="4" width="74.6328125" customWidth="1"/>
+    <col min="5" max="5" width="41.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1222,8 +1222,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:46" s="4" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:46" s="4" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="45" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1278,8 +1278,8 @@
       <c r="AS2"/>
       <c r="AT2"/>
     </row>
-    <row r="3" spans="1:46" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A3" s="23"/>
+    <row r="3" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="45"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1332,8 +1332,8 @@
       <c r="AS3"/>
       <c r="AT3"/>
     </row>
-    <row r="4" spans="1:46" s="4" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A4" s="23"/>
+    <row r="4" spans="1:46" s="4" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="45"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1386,8 +1386,8 @@
       <c r="AS4"/>
       <c r="AT4"/>
     </row>
-    <row r="5" spans="1:46" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
+    <row r="5" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" s="45"/>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1440,8 +1440,8 @@
       <c r="AS5"/>
       <c r="AT5"/>
     </row>
-    <row r="6" spans="1:46" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
+    <row r="6" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="45"/>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1494,8 +1494,8 @@
       <c r="AS6"/>
       <c r="AT6"/>
     </row>
-    <row r="7" spans="1:46" s="4" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:46" s="4" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A7" s="45" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1550,8 +1550,8 @@
       <c r="AS7"/>
       <c r="AT7"/>
     </row>
-    <row r="8" spans="1:46" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
+    <row r="8" spans="1:46" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="45"/>
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1604,8 +1604,8 @@
       <c r="AS8"/>
       <c r="AT8"/>
     </row>
-    <row r="9" spans="1:46" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
+    <row r="9" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="45"/>
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1658,8 +1658,8 @@
       <c r="AS9"/>
       <c r="AT9"/>
     </row>
-    <row r="10" spans="1:46" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
+    <row r="10" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A10" s="45"/>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1712,8 +1712,8 @@
       <c r="AS10"/>
       <c r="AT10"/>
     </row>
-    <row r="11" spans="1:46" s="4" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
+    <row r="11" spans="1:46" s="4" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A11" s="45"/>
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1783,13 +1783,13 @@
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1"/>
-    <col min="2" max="6" width="21.83203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="32.36328125" customWidth="1"/>
+    <col min="2" max="6" width="21.81640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>34</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
@@ -1922,17 +1922,17 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.83203125" customWidth="1"/>
-    <col min="2" max="2" width="42.5" style="11" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="12" customWidth="1"/>
-    <col min="6" max="10" width="21.83203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="45.81640625" customWidth="1"/>
+    <col min="2" max="2" width="42.453125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="27.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" style="12" customWidth="1"/>
+    <col min="6" max="10" width="21.81640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -1966,7 +1966,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
@@ -1984,7 +1984,7 @@
       </c>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
@@ -2002,7 +2002,7 @@
       </c>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>30</v>
       </c>
@@ -2020,7 +2020,7 @@
       </c>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>34</v>
       </c>
@@ -2056,7 +2056,7 @@
       </c>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>34</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>34</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>36</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>37</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
@@ -2262,7 +2262,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>37</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>37</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>38</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>38</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>38</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>38</v>
       </c>
@@ -2395,14 +2395,14 @@
       <selection activeCell="B12" sqref="B12:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="4" width="23.83203125" customWidth="1"/>
-    <col min="7" max="10" width="26.1640625" customWidth="1"/>
+    <col min="2" max="4" width="23.81640625" customWidth="1"/>
+    <col min="7" max="10" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>44</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>48</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>49</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>50</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>51</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>64</v>
       </c>
@@ -2549,7 +2549,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="25" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>56</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>59</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="25" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>56</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>59</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="25" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>60</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>60</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="25" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>60</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>60</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="25" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>58</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>58</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="25" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>58</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>58</v>
       </c>
@@ -2767,12 +2767,12 @@
       <selection activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="29.83203125" customWidth="1"/>
+    <col min="1" max="5" width="29.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="17" t="s">
         <v>56</v>
@@ -2784,7 +2784,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>30</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
         <v>34</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>31</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
         <v>32</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
         <v>33</v>
       </c>
@@ -2854,29 +2854,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+    <row r="8" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -2893,333 +2893,341 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75DD1D88-089A-304B-8F89-0474B1D6BA35}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="6" width="19.6640625" style="47" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.6328125" customWidth="1"/>
+    <col min="4" max="6" width="19.6328125" style="42" customWidth="1"/>
+    <col min="7" max="7" width="19.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="50" t="s">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C1" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="52"/>
-    </row>
-    <row r="2" spans="1:7" s="47" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="38" t="s">
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
+    </row>
+    <row r="2" spans="1:7" s="42" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="47" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:7" s="42" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="27">
+      <c r="C3" s="25">
+        <v>7</v>
+      </c>
+      <c r="D3" s="25">
+        <v>12</v>
+      </c>
+      <c r="E3" s="25">
+        <v>11</v>
+      </c>
+      <c r="F3" s="25">
+        <v>12</v>
+      </c>
+      <c r="G3" s="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="42" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="51"/>
+      <c r="B4" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="36">
         <v>3</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D4" s="36">
+        <v>4</v>
+      </c>
+      <c r="E4" s="36">
+        <v>5</v>
+      </c>
+      <c r="F4" s="36">
+        <v>5</v>
+      </c>
+      <c r="G4" s="37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="42" customFormat="1" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="52"/>
+      <c r="B5" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="26">
+        <v>3</v>
+      </c>
+      <c r="D5" s="26">
         <v>6</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E5" s="26">
+        <v>4</v>
+      </c>
+      <c r="F5" s="26">
+        <v>5</v>
+      </c>
+      <c r="G5" s="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="42" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="25">
         <v>6</v>
       </c>
-      <c r="F3" s="27">
+      <c r="D6" s="25">
+        <v>8</v>
+      </c>
+      <c r="E6" s="25">
+        <v>8</v>
+      </c>
+      <c r="F6" s="25">
+        <v>8</v>
+      </c>
+      <c r="G6" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="42" customFormat="1" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="52"/>
+      <c r="B7" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="26">
+        <v>3</v>
+      </c>
+      <c r="D7" s="26">
+        <v>4</v>
+      </c>
+      <c r="E7" s="26">
+        <v>4</v>
+      </c>
+      <c r="F7" s="26">
         <v>5</v>
       </c>
-      <c r="G3" s="34">
+      <c r="G7" s="30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="42" customFormat="1" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="40">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" s="47" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="32"/>
-      <c r="B4" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="41">
-        <v>1</v>
-      </c>
-      <c r="D4" s="41">
-        <v>2</v>
-      </c>
-      <c r="E4" s="41">
-        <v>3</v>
-      </c>
-      <c r="F4" s="41">
-        <v>2</v>
-      </c>
-      <c r="G4" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="47" customFormat="1" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="28">
-        <v>1</v>
-      </c>
-      <c r="D5" s="28">
+      <c r="D8" s="40">
+        <v>6</v>
+      </c>
+      <c r="E8" s="40">
+        <v>7</v>
+      </c>
+      <c r="F8" s="40">
+        <v>5</v>
+      </c>
+      <c r="G8" s="41">
         <v>4</v>
       </c>
-      <c r="E5" s="28">
-        <v>3</v>
-      </c>
-      <c r="F5" s="28">
-        <v>3</v>
-      </c>
-      <c r="G5" s="35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="47" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="27">
-        <v>2</v>
-      </c>
-      <c r="D6" s="27">
-        <v>3</v>
-      </c>
-      <c r="E6" s="27">
-        <v>3</v>
-      </c>
-      <c r="F6" s="27">
-        <v>3</v>
-      </c>
-      <c r="G6" s="34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="47" customFormat="1" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="28">
-        <v>1</v>
-      </c>
-      <c r="D7" s="28">
-        <v>2</v>
-      </c>
-      <c r="E7" s="28">
-        <v>2</v>
-      </c>
-      <c r="F7" s="28">
-        <v>2</v>
-      </c>
-      <c r="G7" s="35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="47" customFormat="1" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="45">
-        <v>2</v>
-      </c>
-      <c r="D8" s="45">
-        <v>2</v>
-      </c>
-      <c r="E8" s="45">
-        <v>2</v>
-      </c>
-      <c r="F8" s="45">
-        <v>1</v>
-      </c>
-      <c r="G8" s="46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="48"/>
-    </row>
-    <row r="10" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="48"/>
-      <c r="B10" s="26" t="s">
+    </row>
+    <row r="9" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="43"/>
+    </row>
+    <row r="10" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="43"/>
+      <c r="B10" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="44" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="47" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="48"/>
-      <c r="B11" s="26" t="s">
+    <row r="11" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="43"/>
+      <c r="B11" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="44" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="26" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="24" t="s">
         <v>73</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="26" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B13" s="24" t="s">
         <v>74</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="26" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="24" t="s">
         <v>75</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="26" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B15" s="24" t="s">
         <v>76</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="26" t="s">
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B16" s="24" t="s">
         <v>77</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="26" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="24" t="s">
         <v>78</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="26" t="s">
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="24" t="s">
         <v>79</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="26" t="s">
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" s="24" t="s">
         <v>80</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="26" t="s">
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="12"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="26" t="s">
+      <c r="C20" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="12"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="26" t="s">
+      <c r="C21" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B22" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="12"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="26" t="s">
+      <c r="C22" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B23" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="12"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="26" t="s">
+      <c r="C23" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B24" s="24" t="s">
         <v>85</v>
       </c>
       <c r="C24" s="12"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="26" t="s">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B25" s="24" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="12"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="26" t="s">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B26" s="24" t="s">
         <v>87</v>
       </c>
       <c r="C26" s="12"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="26" t="s">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B27" s="24" t="s">
         <v>88</v>
       </c>
       <c r="C27" s="12"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="26" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B28" s="24" t="s">
         <v>89</v>
       </c>
       <c r="C28" s="12"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="26" t="s">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B29" s="24" t="s">
         <v>90</v>
       </c>
       <c r="C29" s="12"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" s="26" t="s">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B30" s="24" t="s">
         <v>91</v>
       </c>
       <c r="C30" s="12"/>
@@ -3243,12 +3251,12 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="30.83203125" customWidth="1"/>
+    <col min="1" max="4" width="30.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="17" t="s">
         <v>56</v>
@@ -3260,7 +3268,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
         <v>13</v>
       </c>
@@ -3274,7 +3282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="22" t="s">
         <v>14</v>
       </c>
@@ -3288,7 +3296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
         <v>39</v>
       </c>
@@ -3302,7 +3310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
         <v>40</v>
       </c>
@@ -3316,7 +3324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
         <v>41</v>
       </c>
@@ -3330,12 +3338,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="24" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Excel/Mapping Study.xlsx
+++ b/Excel/Mapping Study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bosch-my.sharepoint.com/personal/nnr3fe_bosch_com/Documents/PersonalDrive/HTWG/BA/LaTex/Thesis/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilsarnold/Documents/WIN-Studium/7. Semester/BA/Thesis/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="6_{1C4991A2-5980-45E5-84EC-2227ABB33033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95418BC8-1A71-4E50-AED8-963159553336}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21382048-7FF6-864D-B436-643A7D7F9E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="5" xr2:uid="{0DD4CFEA-C2F1-46F7-88F8-AB6F3727EE8E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="7" xr2:uid="{0DD4CFEA-C2F1-46F7-88F8-AB6F3727EE8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Zusammenfassung RQ1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Mapping drei " sheetId="8" r:id="rId5"/>
     <sheet name="Mapping Final" sheetId="9" r:id="rId6"/>
     <sheet name="Mapping vier" sheetId="7" r:id="rId7"/>
+    <sheet name="Mapping fünf" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="97">
   <si>
     <t>Anzahl Papers</t>
   </si>
@@ -354,6 +355,18 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>ML/DL Frameworks &amp; Bibliotheken</t>
+  </si>
+  <si>
+    <t>MLOps Tools &amp; Orchestrierung</t>
+  </si>
+  <si>
+    <t>Dateninfrastruktur (Vektordatenbanken)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitoring </t>
   </si>
 </sst>
 </file>
@@ -652,7 +665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -714,65 +727,56 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -789,14 +793,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -813,72 +826,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>84817</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>56186</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Grafik 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{305836AB-EDB1-0D5F-B670-E84BAEAB24C6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="4580617"/>
-          <a:ext cx="10896600" cy="6638869"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1204,16 +1151,16 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" customWidth="1"/>
-    <col min="2" max="2" width="30.6328125" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
     <col min="3" max="3" width="39" customWidth="1"/>
-    <col min="4" max="4" width="74.6328125" customWidth="1"/>
-    <col min="5" max="5" width="41.1796875" customWidth="1"/>
+    <col min="4" max="4" width="74.6640625" customWidth="1"/>
+    <col min="5" max="5" width="41.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:46" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1222,8 +1169,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:46" s="4" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="45" t="s">
+    <row r="2" spans="1:46" s="4" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="40" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1278,8 +1225,8 @@
       <c r="AS2"/>
       <c r="AT2"/>
     </row>
-    <row r="3" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" s="45"/>
+    <row r="3" spans="1:46" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A3" s="40"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1332,8 +1279,8 @@
       <c r="AS3"/>
       <c r="AT3"/>
     </row>
-    <row r="4" spans="1:46" s="4" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="45"/>
+    <row r="4" spans="1:46" s="4" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A4" s="40"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1386,8 +1333,8 @@
       <c r="AS4"/>
       <c r="AT4"/>
     </row>
-    <row r="5" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" s="45"/>
+    <row r="5" spans="1:46" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A5" s="40"/>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1440,8 +1387,8 @@
       <c r="AS5"/>
       <c r="AT5"/>
     </row>
-    <row r="6" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A6" s="45"/>
+    <row r="6" spans="1:46" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A6" s="40"/>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1494,8 +1441,8 @@
       <c r="AS6"/>
       <c r="AT6"/>
     </row>
-    <row r="7" spans="1:46" s="4" customFormat="1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A7" s="45" t="s">
+    <row r="7" spans="1:46" s="4" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A7" s="40" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1550,8 +1497,8 @@
       <c r="AS7"/>
       <c r="AT7"/>
     </row>
-    <row r="8" spans="1:46" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="45"/>
+    <row r="8" spans="1:46" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" s="40"/>
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1604,8 +1551,8 @@
       <c r="AS8"/>
       <c r="AT8"/>
     </row>
-    <row r="9" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="45"/>
+    <row r="9" spans="1:46" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A9" s="40"/>
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1658,8 +1605,8 @@
       <c r="AS9"/>
       <c r="AT9"/>
     </row>
-    <row r="10" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A10" s="45"/>
+    <row r="10" spans="1:46" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A10" s="40"/>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1712,8 +1659,8 @@
       <c r="AS10"/>
       <c r="AT10"/>
     </row>
-    <row r="11" spans="1:46" s="4" customFormat="1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A11" s="45"/>
+    <row r="11" spans="1:46" s="4" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A11" s="40"/>
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1783,13 +1730,13 @@
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.36328125" customWidth="1"/>
-    <col min="2" max="6" width="21.81640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+    <col min="2" max="6" width="21.83203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
@@ -1809,7 +1756,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -1829,7 +1776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>34</v>
       </c>
@@ -1849,7 +1796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
@@ -1869,7 +1816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
@@ -1889,7 +1836,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
@@ -1922,17 +1869,17 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.81640625" customWidth="1"/>
-    <col min="2" max="2" width="42.453125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="27.81640625" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="19.453125" style="12" customWidth="1"/>
-    <col min="6" max="10" width="21.81640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="45.83203125" customWidth="1"/>
+    <col min="2" max="2" width="42.5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="12" customWidth="1"/>
+    <col min="6" max="10" width="21.83203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -1949,7 +1896,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -1966,7 +1913,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
@@ -1984,7 +1931,7 @@
       </c>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
@@ -2002,7 +1949,7 @@
       </c>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>30</v>
       </c>
@@ -2020,7 +1967,7 @@
       </c>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
@@ -2038,7 +1985,7 @@
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>34</v>
       </c>
@@ -2056,7 +2003,7 @@
       </c>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
@@ -2074,7 +2021,7 @@
       </c>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>34</v>
       </c>
@@ -2091,7 +2038,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>34</v>
       </c>
@@ -2108,7 +2055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -2125,7 +2072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -2143,7 +2090,7 @@
       </c>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -2160,7 +2107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
@@ -2177,7 +2124,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
@@ -2194,7 +2141,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>36</v>
       </c>
@@ -2211,7 +2158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>37</v>
       </c>
@@ -2228,7 +2175,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
@@ -2245,7 +2192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
@@ -2262,7 +2209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>37</v>
       </c>
@@ -2279,7 +2226,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>37</v>
       </c>
@@ -2296,7 +2243,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>38</v>
       </c>
@@ -2313,7 +2260,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>38</v>
       </c>
@@ -2330,7 +2277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>38</v>
       </c>
@@ -2347,7 +2294,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
@@ -2364,7 +2311,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>38</v>
       </c>
@@ -2392,17 +2339,17 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B15"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="4" width="23.81640625" customWidth="1"/>
-    <col min="7" max="10" width="26.1796875" customWidth="1"/>
+    <col min="2" max="4" width="23.83203125" customWidth="1"/>
+    <col min="7" max="10" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>44</v>
       </c>
@@ -2428,7 +2375,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>48</v>
       </c>
@@ -2454,7 +2401,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>49</v>
       </c>
@@ -2480,7 +2427,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>50</v>
       </c>
@@ -2506,7 +2453,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>51</v>
       </c>
@@ -2532,7 +2479,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>64</v>
       </c>
@@ -2549,7 +2496,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="28" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>56</v>
       </c>
@@ -2566,7 +2513,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>59</v>
       </c>
@@ -2583,7 +2530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="28" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>56</v>
       </c>
@@ -2600,7 +2547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>59</v>
       </c>
@@ -2617,7 +2564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="28" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>60</v>
       </c>
@@ -2634,7 +2581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>60</v>
       </c>
@@ -2651,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="28" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>60</v>
       </c>
@@ -2668,7 +2615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>60</v>
       </c>
@@ -2685,7 +2632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="28" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>58</v>
       </c>
@@ -2702,7 +2649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>58</v>
       </c>
@@ -2719,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="28" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>58</v>
       </c>
@@ -2736,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>58</v>
       </c>
@@ -2755,7 +2702,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2767,12 +2713,12 @@
       <selection activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="29.81640625" customWidth="1"/>
+    <col min="1" max="5" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="17" t="s">
         <v>56</v>
@@ -2784,7 +2730,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>30</v>
       </c>
@@ -2798,7 +2744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>34</v>
       </c>
@@ -2812,7 +2758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>31</v>
       </c>
@@ -2826,7 +2772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>32</v>
       </c>
@@ -2840,7 +2786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>33</v>
       </c>
@@ -2854,29 +2800,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="46" t="s">
+    <row r="8" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -2893,341 +2839,326 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75DD1D88-089A-304B-8F89-0474B1D6BA35}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.6328125" customWidth="1"/>
-    <col min="4" max="6" width="19.6328125" style="42" customWidth="1"/>
-    <col min="7" max="7" width="19.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="47" t="s">
+    <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49"/>
-    </row>
-    <row r="2" spans="1:7" s="42" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="33" t="s">
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44"/>
+    </row>
+    <row r="2" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="42" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="24">
         <v>7</v>
       </c>
-      <c r="D3" s="25">
+      <c r="D3" s="24">
         <v>12</v>
       </c>
-      <c r="E3" s="25">
+      <c r="E3" s="24">
         <v>11</v>
       </c>
-      <c r="F3" s="25">
+      <c r="F3" s="24">
         <v>12</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="28">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="42" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="51"/>
-      <c r="B4" s="35" t="s">
+    <row r="4" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="46"/>
+      <c r="B4" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="2">
         <v>4</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="2">
         <v>5</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="2">
         <v>5</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="35">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="42" customFormat="1" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="52"/>
-      <c r="B5" s="28" t="s">
+    <row r="5" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="47"/>
+      <c r="B5" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="25">
         <v>3</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="25">
         <v>6</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="25">
         <v>4</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="25">
         <v>5</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="29">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="42" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="50" t="s">
+    <row r="6" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="24">
         <v>6</v>
       </c>
-      <c r="D6" s="25">
+      <c r="D6" s="24">
         <v>8</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="24">
         <v>8</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="24">
         <v>8</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="28">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="42" customFormat="1" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="52"/>
-      <c r="B7" s="28" t="s">
+    <row r="7" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="47"/>
+      <c r="B7" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="25">
         <v>3</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="25">
         <v>4</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="25">
         <v>4</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="25">
         <v>5</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="29">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="42" customFormat="1" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="38" t="s">
+    <row r="8" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="38">
         <v>5</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="38">
         <v>6</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="38">
         <v>7</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="38">
         <v>5</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="39">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="43"/>
-    </row>
-    <row r="10" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="43"/>
-      <c r="B10" s="24" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="42" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="43"/>
-      <c r="B11" s="24" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B12" s="24" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="23" t="s">
         <v>73</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B13" s="24" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="23" t="s">
         <v>74</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B14" s="24" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="23" t="s">
         <v>75</v>
       </c>
       <c r="C14" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B15" s="24" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="23" t="s">
         <v>76</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B16" s="24" t="s">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="23" t="s">
         <v>77</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B17" s="24" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="23" t="s">
         <v>78</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B18" s="24" t="s">
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="23" t="s">
         <v>79</v>
       </c>
       <c r="C18" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B19" s="24" t="s">
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="23" t="s">
         <v>80</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B20" s="24" t="s">
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="23" t="s">
         <v>81</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B21" s="24" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="23" t="s">
         <v>82</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B22" s="24" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="23" t="s">
         <v>83</v>
       </c>
       <c r="C22" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B23" s="24" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="23" t="s">
         <v>84</v>
       </c>
       <c r="C23" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B24" s="24" t="s">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="23" t="s">
         <v>85</v>
       </c>
       <c r="C24" s="12"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B25" s="24" t="s">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="23" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="12"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B26" s="24" t="s">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="23" t="s">
         <v>87</v>
       </c>
       <c r="C26" s="12"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B27" s="24" t="s">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="23" t="s">
         <v>88</v>
       </c>
       <c r="C27" s="12"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B28" s="24" t="s">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="23" t="s">
         <v>89</v>
       </c>
       <c r="C28" s="12"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B29" s="24" t="s">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="23" t="s">
         <v>90</v>
       </c>
       <c r="C29" s="12"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B30" s="24" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="23" t="s">
         <v>91</v>
       </c>
       <c r="C30" s="12"/>
@@ -3248,15 +3179,15 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="30.81640625" customWidth="1"/>
+    <col min="1" max="4" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="17" t="s">
         <v>56</v>
@@ -3268,7 +3199,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>13</v>
       </c>
@@ -3282,7 +3213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>14</v>
       </c>
@@ -3296,7 +3227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>39</v>
       </c>
@@ -3310,7 +3241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>40</v>
       </c>
@@ -3324,7 +3255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>41</v>
       </c>
@@ -3338,12 +3269,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="46" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3351,4 +3282,293 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D85E9E-A320-8846-8F2A-00C580DDC52A}">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="2" max="5" width="36" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+      <c r="B1" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="48">
+        <v>11</v>
+      </c>
+      <c r="C2" s="48">
+        <v>14</v>
+      </c>
+      <c r="D2" s="48">
+        <v>11</v>
+      </c>
+      <c r="E2" s="48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="48">
+        <v>11</v>
+      </c>
+      <c r="C3" s="48">
+        <v>13</v>
+      </c>
+      <c r="D3" s="48">
+        <v>11</v>
+      </c>
+      <c r="E3" s="48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="48">
+        <v>8</v>
+      </c>
+      <c r="C4" s="48">
+        <v>12</v>
+      </c>
+      <c r="D4" s="48">
+        <v>10</v>
+      </c>
+      <c r="E4" s="50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="48">
+        <v>8</v>
+      </c>
+      <c r="C5" s="48">
+        <v>12</v>
+      </c>
+      <c r="D5" s="48">
+        <v>9</v>
+      </c>
+      <c r="E5" s="48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="48">
+        <v>9</v>
+      </c>
+      <c r="C6" s="48">
+        <v>11</v>
+      </c>
+      <c r="D6" s="48">
+        <v>9</v>
+      </c>
+      <c r="E6" s="48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="49" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel/Mapping Study.xlsx
+++ b/Excel/Mapping Study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilsarnold/Documents/WIN-Studium/7. Semester/BA/Thesis/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bosch-my.sharepoint.com/personal/nnr3fe_bosch_com/Documents/PersonalDrive/HTWG/BA/LaTex/Thesis/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21382048-7FF6-864D-B436-643A7D7F9E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="7" xr2:uid="{0DD4CFEA-C2F1-46F7-88F8-AB6F3727EE8E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{0DD4CFEA-C2F1-46F7-88F8-AB6F3727EE8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Zusammenfassung RQ1" sheetId="1" r:id="rId1"/>
@@ -779,6 +779,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -801,15 +810,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1151,16 +1151,16 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.6328125" customWidth="1"/>
+    <col min="2" max="2" width="30.6328125" customWidth="1"/>
     <col min="3" max="3" width="39" customWidth="1"/>
-    <col min="4" max="4" width="74.6640625" customWidth="1"/>
-    <col min="5" max="5" width="41.1640625" customWidth="1"/>
+    <col min="4" max="4" width="74.6328125" customWidth="1"/>
+    <col min="5" max="5" width="41.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1169,8 +1169,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:46" s="4" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:46" s="4" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="43" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1225,8 +1225,8 @@
       <c r="AS2"/>
       <c r="AT2"/>
     </row>
-    <row r="3" spans="1:46" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A3" s="40"/>
+    <row r="3" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="43"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1279,8 +1279,8 @@
       <c r="AS3"/>
       <c r="AT3"/>
     </row>
-    <row r="4" spans="1:46" s="4" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A4" s="40"/>
+    <row r="4" spans="1:46" s="4" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="43"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1333,8 +1333,8 @@
       <c r="AS4"/>
       <c r="AT4"/>
     </row>
-    <row r="5" spans="1:46" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A5" s="40"/>
+    <row r="5" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" s="43"/>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1387,8 +1387,8 @@
       <c r="AS5"/>
       <c r="AT5"/>
     </row>
-    <row r="6" spans="1:46" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A6" s="40"/>
+    <row r="6" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="43"/>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1441,8 +1441,8 @@
       <c r="AS6"/>
       <c r="AT6"/>
     </row>
-    <row r="7" spans="1:46" s="4" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A7" s="40" t="s">
+    <row r="7" spans="1:46" s="4" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A7" s="43" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1497,8 +1497,8 @@
       <c r="AS7"/>
       <c r="AT7"/>
     </row>
-    <row r="8" spans="1:46" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="40"/>
+    <row r="8" spans="1:46" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="43"/>
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1551,8 +1551,8 @@
       <c r="AS8"/>
       <c r="AT8"/>
     </row>
-    <row r="9" spans="1:46" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A9" s="40"/>
+    <row r="9" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="43"/>
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1605,8 +1605,8 @@
       <c r="AS9"/>
       <c r="AT9"/>
     </row>
-    <row r="10" spans="1:46" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
-      <c r="A10" s="40"/>
+    <row r="10" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A10" s="43"/>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1659,8 +1659,8 @@
       <c r="AS10"/>
       <c r="AT10"/>
     </row>
-    <row r="11" spans="1:46" s="4" customFormat="1" ht="96" x14ac:dyDescent="0.2">
-      <c r="A11" s="40"/>
+    <row r="11" spans="1:46" s="4" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A11" s="43"/>
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1730,13 +1730,13 @@
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="32.33203125" customWidth="1"/>
-    <col min="2" max="6" width="21.83203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="32.36328125" customWidth="1"/>
+    <col min="2" max="6" width="21.81640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>34</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
@@ -1869,17 +1869,17 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.83203125" customWidth="1"/>
-    <col min="2" max="2" width="42.5" style="11" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="19.5" style="12" customWidth="1"/>
-    <col min="6" max="10" width="21.83203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="45.81640625" customWidth="1"/>
+    <col min="2" max="2" width="42.453125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="27.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" style="12" customWidth="1"/>
+    <col min="6" max="10" width="21.81640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>30</v>
       </c>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
@@ -1985,7 +1985,7 @@
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>34</v>
       </c>
@@ -2003,7 +2003,7 @@
       </c>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>34</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>34</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
@@ -2141,7 +2141,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>36</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>37</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>37</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>37</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>38</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>38</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>38</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>38</v>
       </c>
@@ -2342,14 +2342,14 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="4" width="23.83203125" customWidth="1"/>
-    <col min="7" max="10" width="26.1640625" customWidth="1"/>
+    <col min="2" max="4" width="23.81640625" customWidth="1"/>
+    <col min="7" max="10" width="26.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>44</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="17" t="s">
         <v>48</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
         <v>49</v>
       </c>
@@ -2427,7 +2427,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>50</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>51</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="14" t="s">
         <v>64</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="25" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>56</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="14" t="s">
         <v>59</v>
       </c>
@@ -2530,7 +2530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="25" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>56</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>59</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="25" x14ac:dyDescent="0.35">
       <c r="A12" s="14" t="s">
         <v>60</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="14" t="s">
         <v>60</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="25" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>60</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="14" t="s">
         <v>60</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="25" x14ac:dyDescent="0.35">
       <c r="A16" s="14" t="s">
         <v>58</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>58</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="25" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>58</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>58</v>
       </c>
@@ -2713,12 +2713,12 @@
       <selection activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="29.83203125" customWidth="1"/>
+    <col min="1" max="5" width="29.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="17" t="s">
         <v>56</v>
@@ -2730,7 +2730,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
         <v>30</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
         <v>34</v>
       </c>
@@ -2758,7 +2758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>31</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
         <v>32</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
         <v>33</v>
       </c>
@@ -2800,29 +2800,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
+    <row r="8" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -2843,22 +2843,22 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="19.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="42" t="s">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C1" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
-    </row>
-    <row r="2" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="47"/>
+    </row>
+    <row r="2" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="30"/>
       <c r="B2" s="31"/>
       <c r="C2" s="32" t="s">
@@ -2877,8 +2877,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+    <row r="3" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="48" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="26" t="s">
@@ -2900,8 +2900,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46"/>
+    <row r="4" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="49"/>
       <c r="B4" s="34" t="s">
         <v>62</v>
       </c>
@@ -2921,8 +2921,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
+    <row r="5" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="50"/>
       <c r="B5" s="27" t="s">
         <v>63</v>
       </c>
@@ -2942,8 +2942,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="45" t="s">
+    <row r="6" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="48" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="26" t="s">
@@ -2965,8 +2965,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+    <row r="7" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="50"/>
       <c r="B7" s="27" t="s">
         <v>69</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="36" t="s">
         <v>46</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B10" s="23" t="s">
         <v>71</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B11" s="23" t="s">
         <v>72</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B12" s="23" t="s">
         <v>73</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B13" s="23" t="s">
         <v>74</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B14" s="23" t="s">
         <v>75</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B15" s="23" t="s">
         <v>76</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B16" s="23" t="s">
         <v>77</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="23" t="s">
         <v>78</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" s="23" t="s">
         <v>79</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" s="23" t="s">
         <v>80</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" s="23" t="s">
         <v>81</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" s="23" t="s">
         <v>82</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" s="23" t="s">
         <v>83</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="23" t="s">
         <v>84</v>
       </c>
@@ -3121,43 +3121,43 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="23" t="s">
         <v>85</v>
       </c>
       <c r="C24" s="12"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B25" s="23" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="12"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B26" s="23" t="s">
         <v>87</v>
       </c>
       <c r="C26" s="12"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B27" s="23" t="s">
         <v>88</v>
       </c>
       <c r="C27" s="12"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B28" s="23" t="s">
         <v>89</v>
       </c>
       <c r="C28" s="12"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B29" s="23" t="s">
         <v>90</v>
       </c>
       <c r="C29" s="12"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B30" s="23" t="s">
         <v>91</v>
       </c>
@@ -3182,12 +3182,12 @@
       <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="30.83203125" customWidth="1"/>
+    <col min="1" max="4" width="30.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="17" t="s">
         <v>56</v>
@@ -3199,7 +3199,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
         <v>13</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="22" t="s">
         <v>14</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
         <v>39</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
         <v>40</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
         <v>41</v>
       </c>
@@ -3269,12 +3269,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B8" s="41" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3289,17 +3289,17 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.6328125" customWidth="1"/>
     <col min="2" max="5" width="36" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="26.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4"/>
       <c r="B1" s="17" t="s">
         <v>93</v>
@@ -3314,253 +3314,253 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="48">
+      <c r="B2" s="40">
         <v>11</v>
       </c>
-      <c r="C2" s="48">
+      <c r="C2" s="40">
         <v>14</v>
       </c>
-      <c r="D2" s="48">
+      <c r="D2" s="40">
         <v>11</v>
       </c>
-      <c r="E2" s="48">
+      <c r="E2" s="40">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="48">
+      <c r="B3" s="40">
         <v>11</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="40">
         <v>13</v>
       </c>
-      <c r="D3" s="48">
+      <c r="D3" s="40">
         <v>11</v>
       </c>
-      <c r="E3" s="48">
+      <c r="E3" s="40">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="40">
         <v>8</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="40">
         <v>12</v>
       </c>
-      <c r="D4" s="48">
+      <c r="D4" s="40">
         <v>10</v>
       </c>
-      <c r="E4" s="50">
+      <c r="E4" s="42">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="48">
+      <c r="B5" s="40">
         <v>8</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="40">
         <v>12</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="40">
         <v>9</v>
       </c>
-      <c r="E5" s="48">
+      <c r="E5" s="40">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="48">
+      <c r="B6" s="40">
         <v>9</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="40">
         <v>11</v>
       </c>
-      <c r="D6" s="48">
+      <c r="D6" s="40">
         <v>9</v>
       </c>
-      <c r="E6" s="48">
+      <c r="E6" s="40">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="49" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="41" t="s">
         <v>71</v>
       </c>
       <c r="B9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="49" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="41" t="s">
         <v>72</v>
       </c>
       <c r="B10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="49" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="41" t="s">
         <v>73</v>
       </c>
       <c r="B11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="49" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="41" t="s">
         <v>74</v>
       </c>
       <c r="B12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="49" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="41" t="s">
         <v>75</v>
       </c>
       <c r="B13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="49" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="41" t="s">
         <v>76</v>
       </c>
       <c r="B14" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="49" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="41" t="s">
         <v>77</v>
       </c>
       <c r="B15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="49" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="41" t="s">
         <v>78</v>
       </c>
       <c r="B16" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="49" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="41" t="s">
         <v>79</v>
       </c>
       <c r="B17" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="49" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="41" t="s">
         <v>80</v>
       </c>
       <c r="B18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="49" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="41" t="s">
         <v>81</v>
       </c>
       <c r="B19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="49" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="41" t="s">
         <v>82</v>
       </c>
       <c r="B20" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="49" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="41" t="s">
         <v>83</v>
       </c>
       <c r="B21" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="49" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="41" t="s">
         <v>84</v>
       </c>
       <c r="B22" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="49" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="41" t="s">
         <v>85</v>
       </c>
       <c r="B23" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="49" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="41" t="s">
         <v>86</v>
       </c>
       <c r="B24" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="49" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="41" t="s">
         <v>87</v>
       </c>
       <c r="B25" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="49" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="41" t="s">
         <v>88</v>
       </c>
       <c r="B26" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="49" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="41" t="s">
         <v>89</v>
       </c>
       <c r="B27" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="49" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="41" t="s">
         <v>90</v>
       </c>
       <c r="B28" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="49" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="41" t="s">
         <v>91</v>
       </c>
       <c r="B29" t="s">

--- a/Excel/Mapping Study.xlsx
+++ b/Excel/Mapping Study.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bosch-my.sharepoint.com/personal/nnr3fe_bosch_com/Documents/PersonalDrive/HTWG/BA/LaTex/Thesis/Excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nilsarnold/Documents/WIN-Studium/7. Semester/BA/Thesis/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21382048-7FF6-864D-B436-643A7D7F9E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBAD74C7-CECB-6D40-BA98-94607ACEA1D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{0DD4CFEA-C2F1-46F7-88F8-AB6F3727EE8E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{0DD4CFEA-C2F1-46F7-88F8-AB6F3727EE8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Zusammenfassung RQ1" sheetId="1" r:id="rId1"/>
@@ -665,7 +665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -781,11 +781,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1151,16 +1148,16 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" customWidth="1"/>
-    <col min="2" max="2" width="30.6328125" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" customWidth="1"/>
     <col min="3" max="3" width="39" customWidth="1"/>
-    <col min="4" max="4" width="74.6328125" customWidth="1"/>
-    <col min="5" max="5" width="41.1796875" customWidth="1"/>
+    <col min="4" max="4" width="74.6640625" customWidth="1"/>
+    <col min="5" max="5" width="41.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:46" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1169,8 +1166,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:46" s="4" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:46" s="4" customFormat="1" ht="51.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="42" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1225,8 +1222,8 @@
       <c r="AS2"/>
       <c r="AT2"/>
     </row>
-    <row r="3" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" s="43"/>
+    <row r="3" spans="1:46" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A3" s="42"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1279,8 +1276,8 @@
       <c r="AS3"/>
       <c r="AT3"/>
     </row>
-    <row r="4" spans="1:46" s="4" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="43"/>
+    <row r="4" spans="1:46" s="4" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A4" s="42"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1333,8 +1330,8 @@
       <c r="AS4"/>
       <c r="AT4"/>
     </row>
-    <row r="5" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" s="43"/>
+    <row r="5" spans="1:46" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A5" s="42"/>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1387,8 +1384,8 @@
       <c r="AS5"/>
       <c r="AT5"/>
     </row>
-    <row r="6" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A6" s="43"/>
+    <row r="6" spans="1:46" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A6" s="42"/>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1441,8 +1438,8 @@
       <c r="AS6"/>
       <c r="AT6"/>
     </row>
-    <row r="7" spans="1:46" s="4" customFormat="1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A7" s="43" t="s">
+    <row r="7" spans="1:46" s="4" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A7" s="42" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1497,8 +1494,8 @@
       <c r="AS7"/>
       <c r="AT7"/>
     </row>
-    <row r="8" spans="1:46" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="43"/>
+    <row r="8" spans="1:46" s="4" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" s="42"/>
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1551,8 +1548,8 @@
       <c r="AS8"/>
       <c r="AT8"/>
     </row>
-    <row r="9" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="43"/>
+    <row r="9" spans="1:46" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A9" s="42"/>
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
@@ -1605,8 +1602,8 @@
       <c r="AS9"/>
       <c r="AT9"/>
     </row>
-    <row r="10" spans="1:46" s="4" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A10" s="43"/>
+    <row r="10" spans="1:46" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A10" s="42"/>
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1659,8 +1656,8 @@
       <c r="AS10"/>
       <c r="AT10"/>
     </row>
-    <row r="11" spans="1:46" s="4" customFormat="1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A11" s="43"/>
+    <row r="11" spans="1:46" s="4" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A11" s="42"/>
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1730,13 +1727,13 @@
       <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.36328125" customWidth="1"/>
-    <col min="2" max="6" width="21.81640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+    <col min="2" max="6" width="21.83203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
@@ -1756,7 +1753,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -1776,7 +1773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>34</v>
       </c>
@@ -1796,7 +1793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
@@ -1816,7 +1813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
@@ -1836,7 +1833,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
@@ -1869,17 +1866,17 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.81640625" customWidth="1"/>
-    <col min="2" max="2" width="42.453125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="27.81640625" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="19.453125" style="12" customWidth="1"/>
-    <col min="6" max="10" width="21.81640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="45.83203125" customWidth="1"/>
+    <col min="2" max="2" width="42.5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="12" customWidth="1"/>
+    <col min="6" max="10" width="21.83203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -1896,7 +1893,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -1913,7 +1910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
@@ -1931,7 +1928,7 @@
       </c>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
@@ -1949,7 +1946,7 @@
       </c>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>30</v>
       </c>
@@ -1967,7 +1964,7 @@
       </c>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
@@ -1985,7 +1982,7 @@
       </c>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>34</v>
       </c>
@@ -2003,7 +2000,7 @@
       </c>
       <c r="K7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
@@ -2021,7 +2018,7 @@
       </c>
       <c r="K8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>34</v>
       </c>
@@ -2038,7 +2035,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>34</v>
       </c>
@@ -2055,7 +2052,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -2072,7 +2069,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -2090,7 +2087,7 @@
       </c>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -2107,7 +2104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>36</v>
       </c>
@@ -2124,7 +2121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
@@ -2141,7 +2138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>36</v>
       </c>
@@ -2158,7 +2155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>37</v>
       </c>
@@ -2175,7 +2172,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>37</v>
       </c>
@@ -2192,7 +2189,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>37</v>
       </c>
@@ -2209,7 +2206,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>37</v>
       </c>
@@ -2226,7 +2223,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>37</v>
       </c>
@@ -2243,7 +2240,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>38</v>
       </c>
@@ -2260,7 +2257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>38</v>
       </c>
@@ -2277,7 +2274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>38</v>
       </c>
@@ -2294,7 +2291,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>38</v>
       </c>
@@ -2311,7 +2308,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>38</v>
       </c>
@@ -2338,18 +2335,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01DF9B60-2E89-4293-8875-39A769A4224F}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="4" width="23.81640625" customWidth="1"/>
-    <col min="7" max="10" width="26.1796875" customWidth="1"/>
+    <col min="2" max="4" width="23.83203125" customWidth="1"/>
+    <col min="7" max="10" width="26.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>44</v>
       </c>
@@ -2375,7 +2372,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
         <v>48</v>
       </c>
@@ -2383,10 +2380,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>48</v>
@@ -2401,7 +2398,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>49</v>
       </c>
@@ -2427,7 +2424,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>50</v>
       </c>
@@ -2453,7 +2450,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>51</v>
       </c>
@@ -2461,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -2479,7 +2476,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>64</v>
       </c>
@@ -2496,7 +2493,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="28" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>56</v>
       </c>
@@ -2513,7 +2510,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>59</v>
       </c>
@@ -2530,7 +2527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="28" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
         <v>56</v>
       </c>
@@ -2547,7 +2544,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
         <v>59</v>
       </c>
@@ -2564,7 +2561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="28" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
         <v>60</v>
       </c>
@@ -2581,7 +2578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>60</v>
       </c>
@@ -2598,7 +2595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="28" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
         <v>60</v>
       </c>
@@ -2615,7 +2612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
         <v>60</v>
       </c>
@@ -2632,7 +2629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="28" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
         <v>58</v>
       </c>
@@ -2649,7 +2646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
         <v>58</v>
       </c>
@@ -2666,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="28" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
         <v>58</v>
       </c>
@@ -2683,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>58</v>
       </c>
@@ -2713,12 +2710,12 @@
       <selection activeCell="A8" sqref="A8:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="29.81640625" customWidth="1"/>
+    <col min="1" max="5" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="17" t="s">
         <v>56</v>
@@ -2730,7 +2727,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>30</v>
       </c>
@@ -2744,7 +2741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>34</v>
       </c>
@@ -2758,7 +2755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>31</v>
       </c>
@@ -2772,7 +2769,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
         <v>32</v>
       </c>
@@ -2786,7 +2783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>33</v>
       </c>
@@ -2800,29 +2797,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="44" t="s">
+    <row r="8" spans="1:4" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -2843,22 +2840,22 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="19.6328125" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C1" s="45" t="s">
+    <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-    </row>
-    <row r="2" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="46"/>
+    </row>
+    <row r="2" spans="1:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
       <c r="B2" s="31"/>
       <c r="C2" s="32" t="s">
@@ -2877,8 +2874,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="48" t="s">
+    <row r="3" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="47" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="26" t="s">
@@ -2900,8 +2897,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="49"/>
+    <row r="4" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="48"/>
       <c r="B4" s="34" t="s">
         <v>62</v>
       </c>
@@ -2921,8 +2918,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="50"/>
+    <row r="5" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="49"/>
       <c r="B5" s="27" t="s">
         <v>63</v>
       </c>
@@ -2942,8 +2939,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="48" t="s">
+    <row r="6" spans="1:7" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="47" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="26" t="s">
@@ -2965,8 +2962,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="50"/>
+    <row r="7" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="49"/>
       <c r="B7" s="27" t="s">
         <v>69</v>
       </c>
@@ -2986,7 +2983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" ht="52" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
         <v>46</v>
       </c>
@@ -3009,7 +3006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" s="23" t="s">
         <v>71</v>
       </c>
@@ -3017,7 +3014,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="23" t="s">
         <v>72</v>
       </c>
@@ -3025,7 +3022,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" s="23" t="s">
         <v>73</v>
       </c>
@@ -3033,7 +3030,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" s="23" t="s">
         <v>74</v>
       </c>
@@ -3041,7 +3038,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" s="23" t="s">
         <v>75</v>
       </c>
@@ -3049,7 +3046,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" s="23" t="s">
         <v>76</v>
       </c>
@@ -3057,7 +3054,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" s="23" t="s">
         <v>77</v>
       </c>
@@ -3065,7 +3062,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="23" t="s">
         <v>78</v>
       </c>
@@ -3073,7 +3070,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="23" t="s">
         <v>79</v>
       </c>
@@ -3081,7 +3078,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="23" t="s">
         <v>80</v>
       </c>
@@ -3089,7 +3086,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="23" t="s">
         <v>81</v>
       </c>
@@ -3097,7 +3094,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="23" t="s">
         <v>82</v>
       </c>
@@ -3105,7 +3102,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="23" t="s">
         <v>83</v>
       </c>
@@ -3113,7 +3110,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="23" t="s">
         <v>84</v>
       </c>
@@ -3121,43 +3118,43 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="23" t="s">
         <v>85</v>
       </c>
       <c r="C24" s="12"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="23" t="s">
         <v>86</v>
       </c>
       <c r="C25" s="12"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" s="23" t="s">
         <v>87</v>
       </c>
       <c r="C26" s="12"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" s="23" t="s">
         <v>88</v>
       </c>
       <c r="C27" s="12"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" s="23" t="s">
         <v>89</v>
       </c>
       <c r="C28" s="12"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B29" s="23" t="s">
         <v>90</v>
       </c>
       <c r="C29" s="12"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B30" s="23" t="s">
         <v>91</v>
       </c>
@@ -3182,12 +3179,12 @@
       <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="30.81640625" customWidth="1"/>
+    <col min="1" max="4" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="17" t="s">
         <v>56</v>
@@ -3199,7 +3196,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>13</v>
       </c>
@@ -3213,7 +3210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>14</v>
       </c>
@@ -3227,7 +3224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>39</v>
       </c>
@@ -3241,7 +3238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>40</v>
       </c>
@@ -3255,7 +3252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>41</v>
       </c>
@@ -3269,12 +3266,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="44" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3288,18 +3285,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D85E9E-A320-8846-8F2A-00C580DDC52A}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0">
+    <sheetView zoomScale="83" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.6328125" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" customWidth="1"/>
     <col min="2" max="5" width="36" customWidth="1"/>
-    <col min="6" max="6" width="26.6328125" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="17" t="s">
         <v>93</v>
@@ -3314,7 +3311,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>13</v>
       </c>
@@ -3331,7 +3328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>14</v>
       </c>
@@ -3348,7 +3345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>39</v>
       </c>
@@ -3361,11 +3358,11 @@
       <c r="D4" s="40">
         <v>10</v>
       </c>
-      <c r="E4" s="42">
+      <c r="E4" s="40">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>40</v>
       </c>
@@ -3382,7 +3379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>41</v>
       </c>
@@ -3399,7 +3396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="41" t="s">
         <v>71</v>
       </c>
@@ -3407,7 +3404,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="41" t="s">
         <v>72</v>
       </c>
@@ -3415,7 +3412,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="41" t="s">
         <v>73</v>
       </c>
@@ -3423,7 +3420,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="41" t="s">
         <v>74</v>
       </c>
@@ -3431,7 +3428,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="41" t="s">
         <v>75</v>
       </c>
@@ -3439,7 +3436,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="41" t="s">
         <v>76</v>
       </c>
@@ -3447,7 +3444,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="41" t="s">
         <v>77</v>
       </c>
@@ -3455,7 +3452,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="41" t="s">
         <v>78</v>
       </c>
@@ -3463,7 +3460,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="41" t="s">
         <v>79</v>
       </c>
@@ -3471,7 +3468,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="41" t="s">
         <v>80</v>
       </c>
@@ -3479,7 +3476,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
         <v>81</v>
       </c>
@@ -3487,7 +3484,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="41" t="s">
         <v>82</v>
       </c>
@@ -3495,7 +3492,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="41" t="s">
         <v>83</v>
       </c>
@@ -3503,7 +3500,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="41" t="s">
         <v>84</v>
       </c>
@@ -3511,7 +3508,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="41" t="s">
         <v>85</v>
       </c>
@@ -3519,7 +3516,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="41" t="s">
         <v>86</v>
       </c>
@@ -3527,7 +3524,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="41" t="s">
         <v>87</v>
       </c>
@@ -3535,7 +3532,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="41" t="s">
         <v>88</v>
       </c>
@@ -3543,7 +3540,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="41" t="s">
         <v>89</v>
       </c>
@@ -3551,7 +3548,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="41" t="s">
         <v>90</v>
       </c>
@@ -3559,7 +3556,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="41" t="s">
         <v>91</v>
       </c>
